--- a/assets/PlantillaProyectoFinal.xlsx
+++ b/assets/PlantillaProyectoFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\Supermarket\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41455B04-8C91-4682-AFFE-16F2EC8DFAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AB6AC1-64D5-4B4E-AA45-4EC0F3727EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReferenciaStock" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="71">
   <si>
     <t>Producto</t>
   </si>
@@ -240,6 +240,12 @@
   <si>
     <t>Referencia</t>
   </si>
+  <si>
+    <t xml:space="preserve">Tinte retoca raíces negro LOréal </t>
+  </si>
+  <si>
+    <t>Helado cookie dough Ben &amp; Jerrys tarrina 406</t>
+  </si>
 </sst>
 </file>
 
@@ -424,12 +430,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -774,9 +788,9 @@
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -817,6 +831,9 @@
       <c r="D2" s="3">
         <v>4001724038870</v>
       </c>
+      <c r="E2">
+        <v>3.86</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="2" t="s">
@@ -831,6 +848,9 @@
       <c r="D3" s="4">
         <v>8412700130468</v>
       </c>
+      <c r="E3">
+        <v>2.5299999999999998</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -846,6 +866,9 @@
       <c r="D4" s="5">
         <v>8428076006795</v>
       </c>
+      <c r="E4">
+        <v>4.25</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15">
       <c r="A5" s="6" t="s">
@@ -860,6 +883,9 @@
       <c r="D5" s="5">
         <v>8412101026001</v>
       </c>
+      <c r="E5">
+        <v>5.41</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="2" t="s">
@@ -874,6 +900,9 @@
       <c r="D6" s="5">
         <v>8410500029159</v>
       </c>
+      <c r="E6">
+        <v>1.99</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="2" t="s">
@@ -888,6 +917,9 @@
       <c r="D7" s="4">
         <v>8410180225087</v>
       </c>
+      <c r="E7">
+        <v>3.56</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="2" t="s">
@@ -902,6 +934,9 @@
       <c r="D8" s="5">
         <v>8700216266628</v>
       </c>
+      <c r="E8">
+        <v>8.7899999999999991</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15">
       <c r="A9" s="6" t="s">
@@ -916,6 +951,9 @@
       <c r="D9" s="5">
         <v>8001090370587</v>
       </c>
+      <c r="E9">
+        <v>3.38</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="8" t="s">
@@ -930,6 +968,9 @@
       <c r="D10" s="5">
         <v>8700216460750</v>
       </c>
+      <c r="E10">
+        <v>3.23</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="2" t="s">
@@ -944,6 +985,9 @@
       <c r="D11" s="5">
         <v>8410762220646</v>
       </c>
+      <c r="E11">
+        <v>3.26</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="12.75">
       <c r="A12" s="2" t="s">
@@ -958,6 +1002,9 @@
       <c r="D12" s="5">
         <v>8410762220059</v>
       </c>
+      <c r="E12">
+        <v>3.26</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="12.75">
       <c r="A13" s="8" t="s">
@@ -972,6 +1019,9 @@
       <c r="D13" s="3">
         <v>8410300349129</v>
       </c>
+      <c r="E13">
+        <v>4.24</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="12.75">
       <c r="A14" s="2" t="s">
@@ -986,6 +1036,9 @@
       <c r="D14" s="4">
         <v>8410172652525</v>
       </c>
+      <c r="E14">
+        <v>1.99</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="12.75">
       <c r="A15" s="2" t="s">
@@ -1000,6 +1053,9 @@
       <c r="D15" s="3">
         <v>5052197040548</v>
       </c>
+      <c r="E15">
+        <v>10.45</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="12.75">
       <c r="A16" s="2" t="s">
@@ -1014,6 +1070,9 @@
       <c r="D16" s="5">
         <v>8711000527474</v>
       </c>
+      <c r="E16">
+        <v>3.32</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="12.75">
       <c r="A17" s="2" t="s">
@@ -1028,6 +1087,9 @@
       <c r="D17" s="4">
         <v>4015400804376</v>
       </c>
+      <c r="E17">
+        <v>5.32</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="21.75" customHeight="1">
       <c r="A18" s="2" t="s">
@@ -1042,6 +1104,9 @@
       <c r="D18" s="5">
         <v>5059319024714</v>
       </c>
+      <c r="E18">
+        <v>4.1100000000000003</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="19.5" customHeight="1">
       <c r="A19" s="8" t="s">
@@ -1056,10 +1121,13 @@
       <c r="D19" s="3">
         <v>7613035265271</v>
       </c>
+      <c r="E19">
+        <v>4.1100000000000003</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="12.75">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B20" s="2">
         <v>15</v>
@@ -1069,6 +1137,9 @@
       </c>
       <c r="D20" s="5">
         <v>3600524146146</v>
+      </c>
+      <c r="E20">
+        <v>7.1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12.75">
@@ -1084,7 +1155,9 @@
       <c r="D21" s="5">
         <v>8410422111048</v>
       </c>
-      <c r="E21" s="26"/>
+      <c r="E21" s="26">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="12.75">
       <c r="A22" s="2" t="s">
@@ -1099,7 +1172,9 @@
       <c r="D22" s="3">
         <v>8410014477743</v>
       </c>
-      <c r="E22" s="26"/>
+      <c r="E22" s="26">
+        <v>3.78</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="12.75">
       <c r="A23" s="9" t="s">
@@ -1114,7 +1189,9 @@
       <c r="D23" s="5">
         <v>8410843060451</v>
       </c>
-      <c r="E23" s="26"/>
+      <c r="E23" s="26">
+        <v>5.36</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="12.75">
       <c r="A24" s="2" t="s">
@@ -1129,7 +1206,9 @@
       <c r="D24" s="4">
         <v>7622300281182</v>
       </c>
-      <c r="E24" s="26"/>
+      <c r="E24" s="26">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="15">
       <c r="A25" s="6" t="s">
@@ -1144,7 +1223,9 @@
       <c r="D25" s="5">
         <v>7622202039133</v>
       </c>
-      <c r="E25" s="26"/>
+      <c r="E25" s="26">
+        <v>3.99</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="12.75">
       <c r="A26" s="10" t="s">
@@ -1159,7 +1240,9 @@
       <c r="D26" s="5">
         <v>3141360052005</v>
       </c>
-      <c r="E26" s="26"/>
+      <c r="E26" s="26">
+        <v>5.31</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="12.75">
       <c r="A27" s="2" t="s">
@@ -1174,7 +1257,9 @@
       <c r="D27" s="5">
         <v>3014260294625</v>
       </c>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>3.11</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="12.75">
       <c r="A28" s="2" t="s">
@@ -1189,7 +1274,9 @@
       <c r="D28" s="5">
         <v>8410063088181</v>
       </c>
-      <c r="E28" s="26"/>
+      <c r="E28" s="26">
+        <v>6.92</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="15">
       <c r="A29" s="6" t="s">
@@ -1204,7 +1291,9 @@
       <c r="D29" s="5">
         <v>8411327031127</v>
       </c>
-      <c r="E29" s="26"/>
+      <c r="E29" s="26">
+        <v>6.22</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="12.75">
       <c r="A30" s="2" t="s">
@@ -1219,7 +1308,9 @@
       <c r="D30" s="3">
         <v>8412600028568</v>
       </c>
-      <c r="E30" s="26"/>
+      <c r="E30" s="26">
+        <v>2.82</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="12.75">
       <c r="A31" s="2" t="s">
@@ -1234,7 +1325,9 @@
       <c r="D31" s="5">
         <v>8718951179042</v>
       </c>
-      <c r="E31" s="26"/>
+      <c r="E31" s="26">
+        <v>5.31</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="12.75">
       <c r="A32" s="2" t="s">
@@ -1249,7 +1342,9 @@
       <c r="D32" s="5">
         <v>8720181029363</v>
       </c>
-      <c r="E32" s="26"/>
+      <c r="E32" s="26">
+        <v>3.43</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" customHeight="1">
@@ -1265,7 +1360,9 @@
       <c r="D33" s="5">
         <v>7613287816825</v>
       </c>
-      <c r="E33" s="26"/>
+      <c r="E33" s="26">
+        <v>2.37</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="24.75" customHeight="1">
       <c r="A34" s="2" t="s">
@@ -1280,7 +1377,9 @@
       <c r="D34" s="5">
         <v>8412500910604</v>
       </c>
-      <c r="E34" s="26"/>
+      <c r="E34" s="26">
+        <v>4.07</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="12.75">
       <c r="A35" s="2" t="s">
@@ -1295,7 +1394,9 @@
       <c r="D35" s="5">
         <v>8410069018939</v>
       </c>
-      <c r="E35" s="26"/>
+      <c r="E35" s="26">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="12.75">
       <c r="A36" s="2" t="s">
@@ -1310,7 +1411,9 @@
       <c r="D36" s="5">
         <v>8410500010614</v>
       </c>
-      <c r="E36" s="26"/>
+      <c r="E36" s="26">
+        <v>1.99</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="12.75">
       <c r="A37" s="2" t="s">
@@ -1325,7 +1428,9 @@
       <c r="D37" s="5">
         <v>5010677012744</v>
       </c>
-      <c r="E37" s="26"/>
+      <c r="E37" s="26">
+        <v>13.76</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="12.75">
       <c r="A38" s="2" t="s">
@@ -1340,7 +1445,9 @@
       <c r="D38" s="5">
         <v>8410010260042</v>
       </c>
-      <c r="E38" s="26"/>
+      <c r="E38" s="26">
+        <v>12.99</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="12.75">
       <c r="A39" s="2" t="s">
@@ -1355,7 +1462,9 @@
       <c r="D39" s="5">
         <v>8412200020504</v>
       </c>
-      <c r="E39" s="26"/>
+      <c r="E39" s="26">
+        <v>1.84</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="12.75">
       <c r="A40" s="2" t="s">
@@ -1370,11 +1479,13 @@
       <c r="D40" s="5">
         <v>4005900704924</v>
       </c>
-      <c r="E40" s="26"/>
+      <c r="E40" s="26">
+        <v>4.29</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="12.75">
       <c r="A41" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2">
         <v>20</v>
@@ -1385,7 +1496,9 @@
       <c r="D41" s="5">
         <v>8711327373105</v>
       </c>
-      <c r="E41" s="26"/>
+      <c r="E41" s="26">
+        <v>7.16</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="12.75">
       <c r="A42" s="2" t="s">
@@ -1400,7 +1513,9 @@
       <c r="D42" s="5">
         <v>7613035902985</v>
       </c>
-      <c r="E42" s="26"/>
+      <c r="E42" s="26">
+        <v>6.02</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="12.75">
       <c r="A43" s="2" t="s">
@@ -1415,7 +1530,9 @@
       <c r="D43" s="4">
         <v>5029053038650</v>
       </c>
-      <c r="E43" s="26"/>
+      <c r="E43" s="26">
+        <v>5.0599999999999996</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="12.75">
       <c r="A44" s="2" t="s">
@@ -1430,7 +1547,9 @@
       <c r="D44" s="5">
         <v>8410320398206</v>
       </c>
-      <c r="E44" s="26"/>
+      <c r="E44" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="15">
       <c r="A45" s="6" t="s">
@@ -1445,7 +1564,9 @@
       <c r="D45" s="5">
         <v>8720182381804</v>
       </c>
-      <c r="E45" s="26"/>
+      <c r="E45" s="26">
+        <v>2.78</v>
+      </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" ht="12.75">
@@ -1461,7 +1582,9 @@
       <c r="D46" s="4">
         <v>8411547001085</v>
       </c>
-      <c r="E46" s="26"/>
+      <c r="E46" s="26">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="12.75">
       <c r="A47" s="2" t="s">
@@ -1476,7 +1599,9 @@
       <c r="D47" s="5">
         <v>8410300101307</v>
       </c>
-      <c r="E47" s="26"/>
+      <c r="E47" s="26">
+        <v>2.63</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="12.75">
       <c r="A48" s="2" t="s">
@@ -1491,7 +1616,9 @@
       <c r="D48" s="5">
         <v>8410300100492</v>
       </c>
-      <c r="E48" s="26"/>
+      <c r="E48" s="26">
+        <v>2.63</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="12.75">
       <c r="A49" s="2" t="s">
@@ -1506,7 +1633,9 @@
       <c r="D49" s="3">
         <v>8410022115828</v>
       </c>
-      <c r="E49" s="26"/>
+      <c r="E49" s="26">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="12.75">
       <c r="A50" s="2" t="s">
@@ -1521,7 +1650,9 @@
       <c r="D50" s="5">
         <v>8410297111150</v>
       </c>
-      <c r="E50" s="26"/>
+      <c r="E50" s="26">
+        <v>1.79</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="12.75">
       <c r="A51" s="2" t="s">
@@ -1536,14 +1667,16 @@
       <c r="D51" s="5">
         <v>8410320127363</v>
       </c>
-      <c r="E51" s="26"/>
+      <c r="E51" s="26">
+        <v>2.25</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D51">
     <sortCondition ref="B1:B51"/>
   </sortState>
   <conditionalFormatting sqref="E1 D1:D43">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="1">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1553,21 +1686,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9040BF9D-3625-4443-9953-6BD1E298C75B}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1575,256 +1707,205 @@
         <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2">
         <f ca="1">RANDBETWEEN(0, 4)</f>
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
         <v>8718951179042</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(0, 4)</f>
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
         <v>3141360052005</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
         <v>8410010260042</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
         <v>8428076006795</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
         <v>8411547001085</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
         <v>8410422111048</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
         <v>8412700130468</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
         <v>8711000527474</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
         <v>8410300349129</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5">
         <v>8412200020504</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5">
         <v>8700216266628</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
         <v>8410172652525</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
         <v>8001090370587</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
         <v>4005900704924</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
         <v>8410014477743</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
         <v>8410022115828</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1832,14 +1913,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C18" s="5">
         <v>3014260294625</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1847,14 +1925,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="C19" s="5">
         <v>8720181029363</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:3">
       <c r="A20" s="9" t="s">
         <v>27</v>
       </c>
@@ -1862,29 +1937,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="C20" s="5">
         <v>8410843060451</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5">
         <v>7613287816825</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
@@ -1892,14 +1961,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="C22" s="5">
         <v>8700216460750</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1907,29 +1973,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C23" s="5">
         <v>8410063088181</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
         <v>8410180225087</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -1937,29 +1997,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="C25" s="4">
         <v>7622300281182</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="5">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5">
         <v>8711327373105</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -1967,44 +2021,35 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="C27" s="5">
         <v>7613035902985</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
         <v>5059319024714</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
         <v>8412500910604</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -2012,44 +2057,35 @@
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="C30" s="5">
         <v>8410297111150</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:3" ht="15">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
         <v>8412101026001</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
         <v>5052197040548</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" s="6" t="s">
         <v>41</v>
       </c>
@@ -2057,29 +2093,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="C33" s="5">
         <v>8720182381804</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:3" ht="15">
       <c r="A34" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="5">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5">
         <v>8411327031127</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
@@ -2087,104 +2117,83 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C35" s="5">
         <v>8410500010614</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:3">
       <c r="A36" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="3">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3">
         <v>7613035265271</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="3">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3">
         <v>8412600028568</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4">
         <v>5029053038650</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="5">
+        <v>3</v>
+      </c>
+      <c r="C39" s="5">
         <v>8410320398206</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
         <v>4001724038870</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="5">
+        <v>3</v>
+      </c>
+      <c r="C41" s="5">
         <v>8410762220646</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
@@ -2192,44 +2201,35 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="5">
+      <c r="C42" s="5">
         <v>8410762220059</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="5">
+        <v>2</v>
+      </c>
+      <c r="C43" s="5">
         <v>8410069018939</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="5">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5">
         <v>5010677012744</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
@@ -2237,14 +2237,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="5">
+      <c r="C45" s="5">
         <v>8410320127363</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
@@ -2252,29 +2249,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="5">
+      <c r="C46" s="5">
         <v>8410300101307</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="5">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5">
         <v>8410300100492</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
@@ -2282,67 +2273,55 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="4">
+      <c r="C48" s="4">
         <v>4015400804376</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="5">
+        <v>2</v>
+      </c>
+      <c r="C49" s="5">
         <v>3600524146146</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:3" ht="15">
       <c r="A50" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+      <c r="C50" s="5">
         <v>7622202039133</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5">
         <v>8410500029159</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D42">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
-      <formula>LEN(TRIM(D1))&gt;0</formula>
+  <conditionalFormatting sqref="C1:C42">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
+      <formula>LEN(TRIM(C1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(E1))&gt;0</formula>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2351,22 +2330,21 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44201463-06EF-4EB4-B0AC-003DE0CD0ADA}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2374,61 +2352,49 @@
         <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2">
         <f ca="1">RANDBETWEEN(0, 4)</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
         <v>8718951179042</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(0, 4)</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
         <v>3141360052005</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
         <v>8410010260042</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2436,59 +2402,47 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="5">
         <v>8428076006795</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
         <v>8411547001085</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
         <v>8410422111048</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
         <v>8412700130468</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -2496,149 +2450,119 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="5">
         <v>8711000527474</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
         <v>8410300349129</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
         <v>8412200020504</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
         <v>8700216266628</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
         <v>8410172652525</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5">
         <v>8001090370587</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5">
         <v>4005900704924</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
         <v>8410014477743</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
         <v>8410022115828</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5">
         <v>3014260294625</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -2646,104 +2570,83 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="C19" s="5">
         <v>8720181029363</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:3">
       <c r="A20" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
         <v>8410843060451</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
         <v>7613287816825</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
         <v>8700216460750</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="5">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5">
         <v>8410063088181</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
         <v>8410180225087</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
         <v>7622300281182</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -2751,104 +2654,83 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="C26" s="5">
         <v>8711327373105</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="5">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5">
         <v>7613035902985</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="5">
+        <v>2</v>
+      </c>
+      <c r="C28" s="5">
         <v>5059319024714</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="5">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5">
         <v>8412500910604</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
         <v>8410297111150</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:3" ht="15">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="5">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5">
         <v>8412101026001</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="3">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3">
         <v>5052197040548</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" s="6" t="s">
         <v>41</v>
       </c>
@@ -2856,119 +2738,95 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="C33" s="5">
         <v>8720182381804</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:3" ht="15">
       <c r="A34" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="5">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5">
         <v>8411327031127</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5">
         <v>8410500010614</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:3">
       <c r="A36" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="3">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3">
         <v>7613035265271</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="3">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3">
         <v>8412600028568</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
         <v>5029053038650</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="5">
+        <v>3</v>
+      </c>
+      <c r="C39" s="5">
         <v>8410320398206</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="3">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3">
         <v>4001724038870</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
@@ -2976,74 +2834,59 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="C41" s="5">
         <v>8410762220646</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="5">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5">
         <v>8410762220059</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="5">
+        <v>4</v>
+      </c>
+      <c r="C43" s="5">
         <v>8410069018939</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="5">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5">
         <v>5010677012744</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="5">
+        <v>4</v>
+      </c>
+      <c r="C45" s="5">
         <v>8410320127363</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
@@ -3051,29 +2894,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="5">
+      <c r="C46" s="5">
         <v>8410300101307</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="5">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5">
         <v>8410300100492</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
@@ -3081,62 +2918,50 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="4">
+      <c r="C48" s="4">
         <v>4015400804376</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="5">
+        <v>3</v>
+      </c>
+      <c r="C49" s="5">
         <v>3600524146146</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:3" ht="15">
       <c r="A50" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="5">
+        <v>3</v>
+      </c>
+      <c r="C50" s="5">
         <v>7622202039133</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5">
         <v>8410500029159</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1 D1:D42">
+  <conditionalFormatting sqref="D1 C1:C42">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(D1))&gt;0</formula>
+      <formula>LEN(TRIM(C1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3779,7 +3604,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1 D1:D42">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="1">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3792,7 +3617,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -3839,8 +3664,8 @@
       <c r="E2" s="5">
         <v>8718951179042</v>
       </c>
-      <c r="F2">
-        <v>2.3279999999999998</v>
+      <c r="F2" s="26">
+        <v>2.3159999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3857,7 +3682,7 @@
       <c r="E3" s="5">
         <v>3141360052005</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="26">
         <v>1.51799999999999</v>
       </c>
     </row>
@@ -3875,7 +3700,7 @@
       <c r="E4" s="5">
         <v>8410010260042</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="26">
         <v>2.5499999999999998</v>
       </c>
     </row>
@@ -3893,8 +3718,8 @@
       <c r="E5" s="5">
         <v>8428076006795</v>
       </c>
-      <c r="F5">
-        <v>2.4</v>
+      <c r="F5" s="26">
+        <v>3.246</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3911,8 +3736,8 @@
       <c r="E6" s="4">
         <v>8411547001085</v>
       </c>
-      <c r="F6">
-        <v>3</v>
+      <c r="F6" s="26">
+        <v>1.194</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3929,8 +3754,8 @@
       <c r="E7" s="5">
         <v>8410422111048</v>
       </c>
-      <c r="F7">
-        <v>3.5999999999999899</v>
+      <c r="F7" s="26">
+        <v>2.1360000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3947,8 +3772,8 @@
       <c r="E8" s="4">
         <v>8412700130468</v>
       </c>
-      <c r="F8">
-        <v>4.2</v>
+      <c r="F8" s="26">
+        <v>5.2739999999999903</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3965,8 +3790,8 @@
       <c r="E9" s="5">
         <v>8711000527474</v>
       </c>
-      <c r="F9">
-        <v>4.8</v>
+      <c r="F9" s="26">
+        <v>2.028</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3983,8 +3808,8 @@
       <c r="E10" s="3">
         <v>8410300349129</v>
       </c>
-      <c r="F10">
-        <v>5.3999999999999897</v>
+      <c r="F10" s="26">
+        <v>1.9379999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4001,8 +3826,8 @@
       <c r="E11" s="5">
         <v>8412200020504</v>
       </c>
-      <c r="F11">
-        <v>6</v>
+      <c r="F11" s="26">
+        <v>1.95599999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4019,8 +3844,8 @@
       <c r="E12" s="5">
         <v>8700216266628</v>
       </c>
-      <c r="F12">
-        <v>6.6</v>
+      <c r="F12" s="26">
+        <v>1.95599999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4037,8 +3862,8 @@
       <c r="E13" s="4">
         <v>8410172652525</v>
       </c>
-      <c r="F13">
-        <v>7.1999999999999904</v>
+      <c r="F13" s="26">
+        <v>2.544</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15">
@@ -4055,8 +3880,8 @@
       <c r="E14" s="5">
         <v>8001090370587</v>
       </c>
-      <c r="F14">
-        <v>7.8</v>
+      <c r="F14" s="26">
+        <v>1.194</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4073,8 +3898,8 @@
       <c r="E15" s="5">
         <v>4005900704924</v>
       </c>
-      <c r="F15">
-        <v>8.4</v>
+      <c r="F15" s="26">
+        <v>6.27</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4091,8 +3916,8 @@
       <c r="E16" s="3">
         <v>8410014477743</v>
       </c>
-      <c r="F16">
-        <v>9</v>
+      <c r="F16" s="26">
+        <v>1.99199999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4109,8 +3934,8 @@
       <c r="E17" s="3">
         <v>8410022115828</v>
       </c>
-      <c r="F17">
-        <v>9.6</v>
+      <c r="F17" s="26">
+        <v>3.1920000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4127,8 +3952,8 @@
       <c r="E18" s="5">
         <v>3014260294625</v>
       </c>
-      <c r="F18">
-        <v>10.199999999999999</v>
+      <c r="F18" s="26">
+        <v>2.4660000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4145,8 +3970,8 @@
       <c r="E19" s="5">
         <v>8720181029363</v>
       </c>
-      <c r="F19">
-        <v>10.799999999999899</v>
+      <c r="F19" s="26">
+        <v>2.4660000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4164,7 +3989,7 @@
         <v>8410843060451</v>
       </c>
       <c r="F20" s="26">
-        <v>11.4</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4182,7 +4007,7 @@
         <v>7613287816825</v>
       </c>
       <c r="F21" s="26">
-        <v>12</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4200,7 +4025,7 @@
         <v>8700216460750</v>
       </c>
       <c r="F22" s="26">
-        <v>12.6</v>
+        <v>2.2679999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4218,7 +4043,7 @@
         <v>8410063088181</v>
       </c>
       <c r="F23" s="26">
-        <v>13.2</v>
+        <v>3.2160000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4236,7 +4061,7 @@
         <v>8410180225087</v>
       </c>
       <c r="F24" s="26">
-        <v>13.799999999999899</v>
+        <v>0.94199999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4254,7 +4079,7 @@
         <v>7622300281182</v>
       </c>
       <c r="F25" s="26">
-        <v>14.399999999999901</v>
+        <v>2.3940000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4272,7 +4097,7 @@
         <v>8711327373105</v>
       </c>
       <c r="F26" s="26">
-        <v>15</v>
+        <v>3.1859999999999902</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4290,7 +4115,7 @@
         <v>7613035902985</v>
       </c>
       <c r="F27" s="26">
-        <v>15.6</v>
+        <v>1.8659999999999899</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4308,7 +4133,7 @@
         <v>5059319024714</v>
       </c>
       <c r="F28" s="26">
-        <v>16.2</v>
+        <v>4.1520000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4326,7 +4151,7 @@
         <v>8412500910604</v>
       </c>
       <c r="F29" s="26">
-        <v>16.8</v>
+        <v>3.73199999999999</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4344,7 +4169,7 @@
         <v>8410297111150</v>
       </c>
       <c r="F30" s="26">
-        <v>17.399999999999999</v>
+        <v>1.6919999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15">
@@ -4362,7 +4187,7 @@
         <v>8412101026001</v>
       </c>
       <c r="F31" s="26">
-        <v>18</v>
+        <v>3.1859999999999902</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4380,7 +4205,7 @@
         <v>5052197040548</v>
       </c>
       <c r="F32" s="26">
-        <v>18.599999999999898</v>
+        <v>2.0579999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15">
@@ -4398,7 +4223,7 @@
         <v>8720182381804</v>
       </c>
       <c r="F33" s="26">
-        <v>19.1999999999999</v>
+        <v>1.4219999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15">
@@ -4416,7 +4241,7 @@
         <v>8411327031127</v>
       </c>
       <c r="F34" s="26">
-        <v>19.799999999999901</v>
+        <v>2.4420000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4434,7 +4259,7 @@
         <v>8410500010614</v>
       </c>
       <c r="F35" s="26">
-        <v>20.399999999999899</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4452,7 +4277,7 @@
         <v>7613035265271</v>
       </c>
       <c r="F36" s="26">
-        <v>20.999999999999901</v>
+        <v>1.194</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4470,7 +4295,7 @@
         <v>8412600028568</v>
       </c>
       <c r="F37" s="26">
-        <v>21.599999999999898</v>
+        <v>8.2560000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4488,7 +4313,7 @@
         <v>5029053038650</v>
       </c>
       <c r="F38" s="26">
-        <v>22.1999999999999</v>
+        <v>7.7939999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4506,7 +4331,7 @@
         <v>8410320398206</v>
       </c>
       <c r="F39" s="26">
-        <v>22.799999999999901</v>
+        <v>1.1040000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4524,7 +4349,7 @@
         <v>4001724038870</v>
       </c>
       <c r="F40" s="26">
-        <v>23.399999999999899</v>
+        <v>2.5739999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4542,7 +4367,7 @@
         <v>8410762220646</v>
       </c>
       <c r="F41" s="26">
-        <v>23.999999999999901</v>
+        <v>4.2960000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4560,7 +4385,7 @@
         <v>8410762220059</v>
       </c>
       <c r="F42" s="26">
-        <v>24.599999999999898</v>
+        <v>3.6119999999999899</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4578,7 +4403,7 @@
         <v>8410069018939</v>
       </c>
       <c r="F43" s="26">
-        <v>25.1999999999999</v>
+        <v>3.0359999999999898</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4596,7 +4421,7 @@
         <v>5010677012744</v>
       </c>
       <c r="F44" s="26">
-        <v>25.799999999999901</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4614,7 +4439,7 @@
         <v>8410320127363</v>
       </c>
       <c r="F45" s="26">
-        <v>26.399999999999899</v>
+        <v>1.6679999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4632,7 +4457,7 @@
         <v>8410300101307</v>
       </c>
       <c r="F46" s="26">
-        <v>26.999999999999901</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4650,7 +4475,7 @@
         <v>8410300100492</v>
       </c>
       <c r="F47" s="26">
-        <v>27.599999999999898</v>
+        <v>1.5779999999999901</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4668,7 +4493,7 @@
         <v>4015400804376</v>
       </c>
       <c r="F48" s="26">
-        <v>28.1999999999999</v>
+        <v>1.5779999999999901</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4686,7 +4511,7 @@
         <v>3600524146146</v>
       </c>
       <c r="F49" s="26">
-        <v>28.799999999999901</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15">
@@ -4704,7 +4529,7 @@
         <v>7622202039133</v>
       </c>
       <c r="F50" s="26">
-        <v>29.399999999999899</v>
+        <v>1.0740000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4722,12 +4547,12 @@
         <v>8410500029159</v>
       </c>
       <c r="F51" s="26">
-        <v>29.999999999999901</v>
+        <v>1.3499999999999901</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1 E1:E42">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="1">
       <formula>LEN(TRIM(E1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5372,7 +5197,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1 D1:D42">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="1">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5382,38 +5207,34 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5F1F0E-92AD-4E2C-8021-CE635DC09BE1}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
@@ -5421,44 +5242,35 @@
         <f ca="1">RANDBETWEEN(0, 3)</f>
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="21">
+      <c r="C2" s="21">
         <v>8718951179042</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="13">
         <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(0, 3)</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
         <v>3141360052005</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21">
         <v>8410010260042</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -5466,44 +5278,35 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="21">
+      <c r="C5" s="21">
         <v>8428076006795</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="C6" s="22">
         <v>8411547001085</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="21">
+        <v>0</v>
+      </c>
+      <c r="C7" s="21">
         <v>8410422111048</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -5511,14 +5314,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="22">
+      <c r="C8" s="22">
         <v>8412700130468</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
@@ -5526,59 +5326,47 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="21">
+      <c r="C9" s="21">
         <v>8711000527474</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="23">
+        <v>2</v>
+      </c>
+      <c r="C10" s="23">
         <v>8410300349129</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:4">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="21">
+        <v>2</v>
+      </c>
+      <c r="C11" s="21">
         <v>8412200020504</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4">
       <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="21">
+        <v>1</v>
+      </c>
+      <c r="C12" s="21">
         <v>8700216266628</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
@@ -5586,74 +5374,59 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="22">
+      <c r="C13" s="22">
         <v>8410172652525</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="21">
+        <v>1</v>
+      </c>
+      <c r="C14" s="21">
         <v>8001090370587</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4">
       <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="21">
+        <v>0</v>
+      </c>
+      <c r="C15" s="21">
         <v>4005900704924</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:4">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="23">
+        <v>2</v>
+      </c>
+      <c r="C16" s="23">
         <v>8410014477743</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:3">
       <c r="A17" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="23">
+        <v>2</v>
+      </c>
+      <c r="C17" s="23">
         <v>8410022115828</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:3">
       <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
@@ -5661,29 +5434,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="21">
+      <c r="C18" s="21">
         <v>3014260294625</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="21">
+        <v>3</v>
+      </c>
+      <c r="C19" s="21">
         <v>8720181029363</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:3">
       <c r="A20" s="20" t="s">
         <v>27</v>
       </c>
@@ -5691,14 +5458,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="21">
+      <c r="C20" s="21">
         <v>8410843060451</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:3">
       <c r="A21" s="13" t="s">
         <v>29</v>
       </c>
@@ -5706,59 +5470,47 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="21">
+      <c r="C21" s="21">
         <v>7613287816825</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:3">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="21">
+        <v>1</v>
+      </c>
+      <c r="C22" s="21">
         <v>8700216460750</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:3">
       <c r="A23" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="21">
+        <v>1</v>
+      </c>
+      <c r="C23" s="21">
         <v>8410063088181</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:3">
       <c r="A24" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="22">
+        <v>0</v>
+      </c>
+      <c r="C24" s="22">
         <v>8410180225087</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:3">
       <c r="A25" s="13" t="s">
         <v>33</v>
       </c>
@@ -5766,89 +5518,71 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="22">
+      <c r="C25" s="22">
         <v>7622300281182</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:3">
       <c r="A26" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+      <c r="C26" s="21">
         <v>8711327373105</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:3">
       <c r="A27" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="13">
         <f ca="1">RANDBETWEEN(0, 3)</f>
-        <v>1</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="21">
+        <v>0</v>
+      </c>
+      <c r="C27" s="21">
         <v>7613035902985</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:3">
       <c r="A28" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="21">
+        <v>3</v>
+      </c>
+      <c r="C28" s="21">
         <v>5059319024714</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:3">
       <c r="A29" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="21">
+        <v>2</v>
+      </c>
+      <c r="C29" s="21">
         <v>8412500910604</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:3">
       <c r="A30" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="21">
+        <v>1</v>
+      </c>
+      <c r="C30" s="21">
         <v>8410297111150</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:3" ht="15">
       <c r="A31" s="19" t="s">
         <v>39</v>
       </c>
@@ -5856,44 +5590,35 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="21">
+      <c r="C31" s="21">
         <v>8412101026001</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:3">
       <c r="A32" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="23">
+        <v>2</v>
+      </c>
+      <c r="C32" s="23">
         <v>5052197040548</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="21">
+        <v>0</v>
+      </c>
+      <c r="C33" s="21">
         <v>8720182381804</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:3" ht="15">
       <c r="A34" s="19" t="s">
         <v>42</v>
       </c>
@@ -5901,14 +5626,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="21">
+      <c r="C34" s="21">
         <v>8411327031127</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:3">
       <c r="A35" s="13" t="s">
         <v>43</v>
       </c>
@@ -5916,14 +5638,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="21">
+      <c r="C35" s="21">
         <v>8410500010614</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:3">
       <c r="A36" s="18" t="s">
         <v>44</v>
       </c>
@@ -5931,29 +5650,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="23">
+      <c r="C36" s="23">
         <v>7613035265271</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:3">
       <c r="A37" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="23">
+        <v>0</v>
+      </c>
+      <c r="C37" s="23">
         <v>8412600028568</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:3">
       <c r="A38" s="13" t="s">
         <v>46</v>
       </c>
@@ -5961,44 +5674,35 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="22">
+      <c r="C38" s="22">
         <v>5029053038650</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:3">
       <c r="A39" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="21">
+        <v>0</v>
+      </c>
+      <c r="C39" s="21">
         <v>8410320398206</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:3">
       <c r="A40" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="23">
+        <v>1</v>
+      </c>
+      <c r="C40" s="23">
         <v>4001724038870</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:3">
       <c r="A41" s="13" t="s">
         <v>49</v>
       </c>
@@ -6006,104 +5710,83 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="21">
+      <c r="C41" s="21">
         <v>8410762220646</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:3">
       <c r="A42" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="21">
+        <v>3</v>
+      </c>
+      <c r="C42" s="21">
         <v>8410762220059</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:3">
       <c r="A43" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="21">
+        <v>2</v>
+      </c>
+      <c r="C43" s="21">
         <v>8410069018939</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:3">
       <c r="A44" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="15">
+        <v>2</v>
+      </c>
+      <c r="C44" s="15">
         <v>5010677012744</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:3">
       <c r="A45" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B45" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="15">
+        <v>0</v>
+      </c>
+      <c r="C45" s="15">
         <v>8410320127363</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:3">
       <c r="A46" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B46" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="15">
+        <v>0</v>
+      </c>
+      <c r="C46" s="15">
         <v>8410300101307</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:3">
       <c r="A47" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="15">
+        <v>1</v>
+      </c>
+      <c r="C47" s="15">
         <v>8410300100492</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:3">
       <c r="A48" s="13" t="s">
         <v>56</v>
       </c>
@@ -6111,29 +5794,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="17">
+      <c r="C48" s="17">
         <v>4015400804376</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:3">
       <c r="A49" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="15">
+        <v>1</v>
+      </c>
+      <c r="C49" s="15">
         <v>3600524146146</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:3" ht="15">
       <c r="A50" s="19" t="s">
         <v>59</v>
       </c>
@@ -6141,14 +5818,11 @@
         <f ca="1">RANDBETWEEN(0, 3)</f>
         <v>0</v>
       </c>
-      <c r="C50" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="15">
+      <c r="C50" s="15">
         <v>7622202039133</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:3">
       <c r="A51" s="13" t="s">
         <v>60</v>
       </c>
@@ -6156,22 +5830,19 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="15">
+      <c r="C51" s="15">
         <v>8410500029159</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D42">
+  <conditionalFormatting sqref="C1:C42">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="1">
+      <formula>LEN(TRIM(C1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
     <cfRule type="notContainsBlanks" dxfId="11" priority="2">
       <formula>LEN(TRIM(D1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="1">
-      <formula>LEN(TRIM(E1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6180,21 +5851,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07B3640-784D-42D0-87AB-0DD72751A82C}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6202,16 +5872,13 @@
         <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -6219,74 +5886,59 @@
         <f ca="1">RANDBETWEEN(0, 3)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="5">
         <v>8718951179042</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(0, 3)</f>
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
         <v>3141360052005</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
         <v>8410010260042</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
         <v>8428076006795</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
         <v>8411547001085</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -6294,14 +5946,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="5">
         <v>8410422111048</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -6309,29 +5958,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="4">
         <v>8412700130468</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5">
         <v>8711000527474</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -6339,14 +5982,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="3">
         <v>8410300349129</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -6354,14 +5994,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" s="5">
         <v>8412200020504</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -6369,14 +6006,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="C12" s="5">
         <v>8700216266628</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -6384,89 +6018,71 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="4">
         <v>8410172652525</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
         <v>8001090370587</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
         <v>4005900704924</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
         <v>8410014477743</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
         <v>8410022115828</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
         <v>3014260294625</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -6474,14 +6090,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="C19" s="5">
         <v>8720181029363</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:3">
       <c r="A20" s="9" t="s">
         <v>27</v>
       </c>
@@ -6489,149 +6102,119 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="C20" s="5">
         <v>8410843060451</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5">
         <v>7613287816825</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5">
         <v>8700216460750</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
         <v>8410063088181</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
         <v>8410180225087</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="4">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4">
         <v>7622300281182</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
         <v>8711327373105</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5">
         <v>7613035902985</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
         <v>5059319024714</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="5">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5">
         <v>8412500910604</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -6639,29 +6222,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="C30" s="5">
         <v>8410297111150</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:3" ht="15">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="5">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5">
         <v>8412101026001</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -6669,89 +6246,71 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C32" s="3">
         <v>5052197040548</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5">
         <v>8720182381804</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:3" ht="15">
       <c r="A34" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="5">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5">
         <v>8411327031127</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="5">
+        <v>2</v>
+      </c>
+      <c r="C35" s="5">
         <v>8410500010614</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:3">
       <c r="A36" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3">
         <v>7613035265271</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="3">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3">
         <v>8412600028568</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -6759,29 +6318,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="4">
+      <c r="C38" s="4">
         <v>5029053038650</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="5">
+        <v>2</v>
+      </c>
+      <c r="C39" s="5">
         <v>8410320398206</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
@@ -6789,44 +6342,35 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="C40" s="3">
         <v>4001724038870</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="5">
+        <v>3</v>
+      </c>
+      <c r="C41" s="5">
         <v>8410762220646</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="5">
+        <v>3</v>
+      </c>
+      <c r="C42" s="5">
         <v>8410762220059</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
@@ -6834,14 +6378,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="5">
+      <c r="C43" s="5">
         <v>8410069018939</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
@@ -6849,59 +6390,47 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="5">
+      <c r="C44" s="5">
         <v>5010677012744</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5">
         <v>8410320127363</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5">
         <v>8410300101307</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="5">
+        <v>2</v>
+      </c>
+      <c r="C47" s="5">
         <v>8410300100492</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
@@ -6909,29 +6438,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="4">
+      <c r="C48" s="4">
         <v>4015400804376</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="5">
+        <v>3</v>
+      </c>
+      <c r="C49" s="5">
         <v>3600524146146</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:3" ht="15">
       <c r="A50" s="6" t="s">
         <v>59</v>
       </c>
@@ -6939,31 +6462,30 @@
         <f ca="1">RANDBETWEEN(0, 3)</f>
         <v>2</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="5">
+      <c r="C50" s="5">
         <v>7622202039133</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+      <c r="C51" s="5">
         <v>8410500029159</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1 D1:D42">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="1">
+  <conditionalFormatting sqref="C1:C42">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="1">
+      <formula>LEN(TRIM(C1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="2">
       <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6973,21 +6495,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858752BE-B8E6-41E3-A886-CDA87CA234FE}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6995,136 +6516,109 @@
         <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2">
         <f ca="1">RANDBETWEEN(0, 3)</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
         <v>8718951179042</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(0, 3)</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
         <v>3141360052005</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
         <v>8410010260042</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
         <v>8428076006795</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
         <v>8411547001085</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
         <v>8410422111048</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
         <v>8412700130468</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
         <v>8711000527474</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -7132,119 +6626,95 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="3">
         <v>8410300349129</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
         <v>8412200020504</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5">
         <v>8700216266628</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
         <v>8410172652525</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
         <v>8001090370587</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5">
         <v>4005900704924</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
         <v>8410014477743</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
         <v>8410022115828</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -7252,59 +6722,47 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C18" s="5">
         <v>3014260294625</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="5">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5">
         <v>8720181029363</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:3">
       <c r="A20" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5">
         <v>8410843060451</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="5">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5">
         <v>7613287816825</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
@@ -7312,14 +6770,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="C22" s="5">
         <v>8700216460750</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -7327,44 +6782,35 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C23" s="5">
         <v>8410063088181</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
         <v>8410180225087</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="2">
         <f ca="1">RANDBETWEEN(0, 3)</f>
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="4">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4">
         <v>7622300281182</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -7372,29 +6818,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="C26" s="5">
         <v>8711327373105</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="5">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5">
         <v>7613035902985</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -7402,14 +6842,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="C28" s="5">
         <v>5059319024714</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -7417,14 +6854,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="C29" s="5">
         <v>8412500910604</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -7432,59 +6866,47 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="C30" s="5">
         <v>8410297111150</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:3" ht="15">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="5">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5">
         <v>8412101026001</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3">
         <v>5052197040548</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="5">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5">
         <v>8720182381804</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:3" ht="15">
       <c r="A34" s="6" t="s">
         <v>42</v>
       </c>
@@ -7492,14 +6914,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="C34" s="5">
         <v>8411327031127</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
@@ -7507,14 +6926,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C35" s="5">
         <v>8410500010614</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:3">
       <c r="A36" s="8" t="s">
         <v>44</v>
       </c>
@@ -7522,29 +6938,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36" s="3">
         <v>7613035265271</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
         <v>8412600028568</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -7552,119 +6962,95 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="4">
+      <c r="C38" s="4">
         <v>5029053038650</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="5">
+        <v>3</v>
+      </c>
+      <c r="C39" s="5">
         <v>8410320398206</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="3">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3">
         <v>4001724038870</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5">
         <v>8410762220646</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5">
         <v>8410762220059</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="5">
+        <v>2</v>
+      </c>
+      <c r="C43" s="5">
         <v>8410069018939</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="5">
+        <v>0</v>
+      </c>
+      <c r="C44" s="5">
         <v>5010677012744</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="5">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5">
         <v>8410320127363</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
@@ -7672,14 +7058,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="5">
+      <c r="C46" s="5">
         <v>8410300101307</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
@@ -7687,82 +7070,67 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="5">
+      <c r="C47" s="5">
         <v>8410300100492</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="4">
+        <v>2</v>
+      </c>
+      <c r="C48" s="4">
         <v>4015400804376</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="5">
+        <v>3</v>
+      </c>
+      <c r="C49" s="5">
         <v>3600524146146</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:3" ht="15">
       <c r="A50" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+      <c r="C50" s="5">
         <v>7622202039133</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5">
         <v>8410500029159</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D42">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="2">
-      <formula>LEN(TRIM(D1))&gt;0</formula>
+  <conditionalFormatting sqref="C1:C42">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="1">
+      <formula>LEN(TRIM(C1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="1">
-      <formula>LEN(TRIM(E1))&gt;0</formula>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="2">
+      <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7771,21 +7139,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981631B9-201A-477A-8CD9-95EDE04CE759}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7793,196 +7160,157 @@
         <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2">
         <f ca="1">RANDBETWEEN(0, 3)</f>
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
         <v>8718951179042</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B50" ca="1" si="0">RANDBETWEEN(0, 3)</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
         <v>3141360052005</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
         <v>8410010260042</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
         <v>8428076006795</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
         <v>8411547001085</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
         <v>8410422111048</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
         <v>8412700130468</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
         <v>8711000527474</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
         <v>8410300349129</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
         <v>8412200020504</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
         <v>8700216266628</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
         <v>8410172652525</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -7990,104 +7318,83 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C14" s="5">
         <v>8001090370587</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
         <v>4005900704924</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
         <v>8410014477743</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
         <v>8410022115828</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
         <v>3014260294625</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
         <v>8720181029363</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:3">
       <c r="A20" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="5">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5">
         <v>8410843060451</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -8095,44 +7402,35 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="C21" s="5">
         <v>7613287816825</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5">
         <v>8700216460750</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="5">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5">
         <v>8410063088181</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -8140,44 +7438,35 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="C24" s="4">
         <v>8410180225087</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
         <v>7622300281182</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
         <v>8711327373105</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -8185,14 +7474,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="C27" s="5">
         <v>7613035902985</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -8200,29 +7486,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="C28" s="5">
         <v>5059319024714</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="5">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5">
         <v>8412500910604</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -8230,29 +7510,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="C30" s="5">
         <v>8410297111150</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:3" ht="15">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5">
         <v>8412101026001</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -8260,14 +7534,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C32" s="3">
         <v>5052197040548</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" s="6" t="s">
         <v>41</v>
       </c>
@@ -8275,44 +7546,35 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="C33" s="5">
         <v>8720182381804</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:3" ht="15">
       <c r="A34" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="5">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5">
         <v>8411327031127</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="5">
+        <v>2</v>
+      </c>
+      <c r="C35" s="5">
         <v>8410500010614</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:3">
       <c r="A36" s="8" t="s">
         <v>44</v>
       </c>
@@ -8320,29 +7582,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36" s="3">
         <v>7613035265271</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
         <v>8412600028568</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -8350,14 +7606,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="4">
+      <c r="C38" s="4">
         <v>5029053038650</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
@@ -8365,29 +7618,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="5">
+      <c r="C39" s="5">
         <v>8410320398206</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="3">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3">
         <v>4001724038870</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
@@ -8395,14 +7642,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="C41" s="5">
         <v>8410762220646</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
@@ -8410,157 +7654,127 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="5">
+      <c r="C42" s="5">
         <v>8410762220059</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="5">
+        <v>2</v>
+      </c>
+      <c r="C43" s="5">
         <v>8410069018939</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="5">
+        <v>3</v>
+      </c>
+      <c r="C44" s="5">
         <v>5010677012744</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5">
         <v>8410320127363</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="5">
+        <v>3</v>
+      </c>
+      <c r="C46" s="5">
         <v>8410300101307</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="C47" s="5">
         <v>8410300100492</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="4">
+        <v>3</v>
+      </c>
+      <c r="C48" s="4">
         <v>4015400804376</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="C49" s="5">
         <v>3600524146146</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:3" ht="15">
       <c r="A50" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="5">
+        <v>3</v>
+      </c>
+      <c r="C50" s="5">
         <v>7622202039133</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B51" s="2">
         <f t="shared" ref="B51" ca="1" si="1">RANDBETWEEN(0, 4)</f>
-        <v>2</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+      <c r="C51" s="5">
         <v>8410500029159</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D42">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="2">
-      <formula>LEN(TRIM(D1))&gt;0</formula>
+  <conditionalFormatting sqref="C1:C42">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="1">
+      <formula>LEN(TRIM(C1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="1">
-      <formula>LEN(TRIM(E1))&gt;0</formula>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="2">
+      <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8569,21 +7783,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD5BA2C-E720-4F42-AD47-A639E7D0A292}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8591,61 +7804,49 @@
         <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2">
         <f ca="1">RANDBETWEEN(0, 2)</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
         <v>8718951179042</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(0, 4)</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
         <v>3141360052005</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
         <v>8410010260042</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -8653,74 +7854,59 @@
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="5">
         <v>8428076006795</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
         <v>8411547001085</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
         <v>8410422111048</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
         <v>8412700130468</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
         <v>8711000527474</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -8728,59 +7914,47 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="3">
         <v>8410300349129</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
         <v>8412200020504</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5">
         <v>8700216266628</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
         <v>8410172652525</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -8788,59 +7962,47 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C14" s="5">
         <v>8001090370587</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5">
         <v>4005900704924</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
         <v>8410014477743</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
         <v>8410022115828</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -8848,74 +8010,59 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C18" s="5">
         <v>3014260294625</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5">
         <v>8720181029363</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:3">
       <c r="A20" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="5">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5">
         <v>8410843060451</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5">
         <v>7613287816825</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
         <v>8700216460750</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -8923,29 +8070,23 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C23" s="5">
         <v>8410063088181</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="4">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4">
         <v>8410180225087</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -8953,164 +8094,131 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="C25" s="4">
         <v>7622300281182</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="5">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5">
         <v>8711327373105</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="5">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5">
         <v>7613035902985</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="5">
+        <v>4</v>
+      </c>
+      <c r="C28" s="5">
         <v>5059319024714</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
         <v>8412500910604</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
         <v>8410297111150</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:3" ht="15">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="5">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5">
         <v>8412101026001</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="3">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3">
         <v>5052197040548</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="5">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5">
         <v>8720182381804</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:3" ht="15">
       <c r="A34" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
         <v>8411327031127</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="5">
+        <v>2</v>
+      </c>
+      <c r="C35" s="5">
         <v>8410500010614</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:3">
       <c r="A36" s="8" t="s">
         <v>44</v>
       </c>
@@ -9118,14 +8226,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36" s="3">
         <v>7613035265271</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -9133,74 +8238,59 @@
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="C37" s="3">
         <v>8412600028568</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="4">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4">
         <v>5029053038650</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="5">
+        <v>3</v>
+      </c>
+      <c r="C39" s="5">
         <v>8410320398206</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
         <v>4001724038870</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="5">
+        <v>3</v>
+      </c>
+      <c r="C41" s="5">
         <v>8410762220646</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
@@ -9208,157 +8298,127 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="5">
+      <c r="C42" s="5">
         <v>8410762220059</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="5">
+        <v>3</v>
+      </c>
+      <c r="C43" s="5">
         <v>8410069018939</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="5">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5">
         <v>5010677012744</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5">
         <v>8410320127363</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="5">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5">
         <v>8410300101307</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5">
         <v>8410300100492</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="4">
+        <v>2</v>
+      </c>
+      <c r="C48" s="4">
         <v>4015400804376</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="5">
+        <v>2</v>
+      </c>
+      <c r="C49" s="5">
         <v>3600524146146</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:3" ht="15">
       <c r="A50" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="5">
+        <v>3</v>
+      </c>
+      <c r="C50" s="5">
         <v>7622202039133</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+      <c r="C51" s="5">
         <v>8410500029159</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D42">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="2">
-      <formula>LEN(TRIM(D1))&gt;0</formula>
+  <conditionalFormatting sqref="C1:C42">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
+      <formula>LEN(TRIM(C1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
-      <formula>LEN(TRIM(E1))&gt;0</formula>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
+      <formula>LEN(TRIM(D1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/PlantillaProyectoFinal.xlsx
+++ b/assets/PlantillaProyectoFinal.xlsx
@@ -8,29 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\Supermarket\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AB6AC1-64D5-4B4E-AA45-4EC0F3727EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979C0C9D-8E67-4043-9DC7-8264C05E0EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReferenciaStock" sheetId="1" r:id="rId1"/>
     <sheet name="VentaDia" sheetId="9" r:id="rId2"/>
-    <sheet name="Distribuidor" sheetId="13" r:id="rId3"/>
-    <sheet name="VentaAcumulada" sheetId="14" r:id="rId4"/>
-    <sheet name="Cliente1" sheetId="2" r:id="rId5"/>
-    <sheet name="Cliente2" sheetId="4" r:id="rId6"/>
-    <sheet name="Cliente3" sheetId="5" r:id="rId7"/>
-    <sheet name="Cliente4" sheetId="6" r:id="rId8"/>
-    <sheet name="Cliente5" sheetId="7" r:id="rId9"/>
-    <sheet name="Cliente6" sheetId="8" r:id="rId10"/>
-    <sheet name="Cliente7" sheetId="11" r:id="rId11"/>
+    <sheet name="BalanceProductos" sheetId="16" r:id="rId3"/>
+    <sheet name="BalanceDiario" sheetId="15" r:id="rId4"/>
+    <sheet name="Distribuidor" sheetId="13" r:id="rId5"/>
+    <sheet name="VentaAcumulada" sheetId="14" r:id="rId6"/>
+    <sheet name="Cliente1" sheetId="2" r:id="rId7"/>
+    <sheet name="Cliente2" sheetId="4" r:id="rId8"/>
+    <sheet name="Cliente3" sheetId="5" r:id="rId9"/>
+    <sheet name="Cliente4" sheetId="6" r:id="rId10"/>
+    <sheet name="Cliente5" sheetId="7" r:id="rId11"/>
+    <sheet name="Cliente6" sheetId="8" r:id="rId12"/>
+    <sheet name="Cliente7" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="73">
   <si>
     <t>Producto</t>
   </si>
@@ -235,9 +237,6 @@
     <t>Unidades vendidas</t>
   </si>
   <si>
-    <t>Paquetes</t>
-  </si>
-  <si>
     <t>Referencia</t>
   </si>
   <si>
@@ -245,6 +244,15 @@
   </si>
   <si>
     <t>Helado cookie dough Ben &amp; Jerrys tarrina 406</t>
+  </si>
+  <si>
+    <t>Beneficios</t>
+  </si>
+  <si>
+    <t>Pérdidas</t>
+  </si>
+  <si>
+    <t>Venta Total</t>
   </si>
 </sst>
 </file>
@@ -373,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -431,6 +439,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,6 +594,2072 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>BalanceProductos!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>8720182381804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8720181029363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8718951179042</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8711327373105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8711000527474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8700216460750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8700216266628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8428076006795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8412700130468</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8412600028568</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8412500910604</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8412200020504</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8412101026001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8411547001085</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8411327031127</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8410843060451</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8410762220646</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8410762220059</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8410500029159</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8410500010614</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8410422111048</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8410320398206</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8410320127363</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8410300349129</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8410300101307</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8410300100492</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8410297111150</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8410180225087</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8410172652525</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8410069018939</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8410063088181</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8410022115828</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8410014477743</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8410010260042</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8001090370587</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7622300281182</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7622202039133</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7613287816825</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7613035902985</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7613035265271</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5059319024714</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5052197040548</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5029053038650</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5010677012744</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4015400804376</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4005900704924</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4001724038870</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3600524146146</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3141360052005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3014260294625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BalanceProductos!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000031-480A-4035-A3ED-2E8FF0AB8430}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="291410480"/>
+        <c:axId val="291413360"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>BalanceProductos!$B$2:$B$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>8720182381804</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8720181029363</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8718951179042</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8711327373105</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8711000527474</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8700216460750</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8700216266628</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8428076006795</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8412700130468</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8412600028568</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8412500910604</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>8412200020504</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>8412101026001</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>8411547001085</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>8411327031127</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>8410843060451</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>8410762220646</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>8410762220059</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>8410500029159</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>8410500010614</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>8410422111048</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>8410320398206</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>8410320127363</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>8410300349129</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>8410300101307</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>8410300100492</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>8410297111150</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>8410180225087</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>8410172652525</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>8410069018939</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>8410063088181</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>8410022115828</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>8410014477743</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>8410010260042</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>8001090370587</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>7622300281182</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>7622202039133</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>7613287816825</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>7613035902985</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>7613035265271</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>5059319024714</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>5052197040548</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>5029053038650</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>5010677012744</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>4015400804376</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>4005900704924</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>4001724038870</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>3600524146146</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>3141360052005</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>3014260294625</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>BalanceProductos!$B$2:$B$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>8720182381804</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8720181029363</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8718951179042</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8711327373105</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8711000527474</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8700216460750</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8700216266628</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8428076006795</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8412700130468</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8412600028568</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8412500910604</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>8412200020504</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>8412101026001</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>8411547001085</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>8411327031127</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>8410843060451</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>8410762220646</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>8410762220059</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>8410500029159</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>8410500010614</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>8410422111048</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>8410320398206</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>8410320127363</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>8410300349129</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>8410300101307</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>8410300100492</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>8410297111150</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>8410180225087</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>8410172652525</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>8410069018939</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>8410063088181</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>8410022115828</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>8410014477743</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>8410010260042</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>8001090370587</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>7622300281182</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>7622202039133</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>7613287816825</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>7613035902985</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>7613035265271</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>5059319024714</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>5052197040548</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>5029053038650</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>5010677012744</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>4015400804376</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>4005900704924</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>4001724038870</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>3600524146146</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>3141360052005</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>3014260294625</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000032-480A-4035-A3ED-2E8FF0AB8430}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="291410480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="291413360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="291413360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="291410480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>BalanceDiario!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2132.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2064.8799999999983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2161.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1993.2599999999982</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2131.2099999999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2215.3599999999988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-948A-4187-A024-94781E797748}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>BalanceDiario!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1141.8899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1097.8899999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1287.7699999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>989.01999999999975</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1283.1399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1058.5199999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1341.0699999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-948A-4187-A024-94781E797748}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="780603184"/>
+        <c:axId val="780608944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="780603184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="780608944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="780608944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="780603184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>BalanceDiario!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2132.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2064.8799999999983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2161.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1993.2599999999982</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2131.2099999999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2215.3599999999988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAC9-4E28-93AA-8961700AB3B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>BalanceDiario!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1141.8899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1097.8899999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1287.7699999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>989.01999999999975</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1283.1399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1058.5199999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1341.0699999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FAC9-4E28-93AA-8961700AB3B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="780615664"/>
+        <c:axId val="780616144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="780615664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="780616144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="780616144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="780615664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>BalanceDiario!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2132.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2064.8799999999983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2161.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1993.2599999999982</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2131.2099999999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2215.3599999999988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DE78-4E09-9FA5-9F44FA7F7F84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>BalanceDiario!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1141.8899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1097.8899999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1287.7699999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>989.01999999999975</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1283.1399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1058.5199999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1341.0699999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DE78-4E09-9FA5-9F44FA7F7F84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="780603184"/>
+        <c:axId val="780610384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="780603184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="780610384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="780610384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="780603184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>BalanceDiario!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2132.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2064.8799999999983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2161.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1993.2599999999982</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2131.2099999999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2215.3599999999988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2E24-45FB-9E4F-1335FA314F7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>BalanceDiario!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1141.8899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1097.8899999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1287.7699999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>989.01999999999975</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1283.1399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1058.5199999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1341.0699999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2E24-45FB-9E4F-1335FA314F7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="289285408"/>
+        <c:axId val="291412400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="289285408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="291412400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="291412400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="289285408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>BalanceDiario!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2132.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2064.8799999999983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2161.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1993.2599999999982</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2131.2099999999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2215.3599999999988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4C7A-4F16-A9F6-929BC75340E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>BalanceDiario!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1141.8899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1097.8899999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1287.7699999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>989.01999999999975</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1283.1399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1058.5199999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1341.0699999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4C7A-4F16-A9F6-929BC75340E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="291409520"/>
+        <c:axId val="291414800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="291409520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="291414800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="291414800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="291409520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>BalanceDiario!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2132.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2097.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2064.8799999999983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2161.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1993.2599999999982</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2131.2099999999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2215.3599999999988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C712-421A-8123-F2995E429507}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>BalanceDiario!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1141.8899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1097.8899999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1287.7699999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>989.01999999999975</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1283.1399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1058.5199999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1341.0699999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C712-421A-8123-F2995E429507}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="288649120"/>
+        <c:axId val="288653440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="288649120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="288653440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="288653440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="288649120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1479550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E65929-1CBC-3A16-18D4-A9CE0CCB7893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A2858A9-F87F-5056-EC7A-E6C6553D6B05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56CCB309-C2FE-2143-5C70-CC9B4AAF8B81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AEE63B2-FA3A-B34E-41DC-322EA1AA03BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD04C54-38A0-503D-E531-A863B216ABD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536B6C17-0DE7-C9A3-DCDB-B63C5EC9C9C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A964AD-C169-6CBD-EDE8-3A394034F881}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -812,7 +2889,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>62</v>
@@ -1127,7 +3204,7 @@
     </row>
     <row r="20" spans="1:7" ht="12.75">
       <c r="A20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2">
         <v>15</v>
@@ -1485,7 +3562,7 @@
     </row>
     <row r="41" spans="1:7" ht="12.75">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2">
         <v>20</v>
@@ -1685,6 +3762,1294 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981631B9-201A-477A-8CD9-95EDE04CE759}">
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <f ca="1">RANDBETWEEN(0, 3)</f>
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>8718951179042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B50" ca="1" si="0">RANDBETWEEN(0, 3)</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3141360052005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8410010260042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>8428076006795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8411547001085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>8410422111048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8412700130468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8711000527474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8410300349129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>8412200020504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>8700216266628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>8410172652525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>8001090370587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C15" s="5">
+        <v>4005900704924</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>8410014477743</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8410022115828</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3014260294625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>8720181029363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C20" s="5">
+        <v>8410843060451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C21" s="5">
+        <v>7613287816825</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C22" s="5">
+        <v>8700216460750</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C23" s="5">
+        <v>8410063088181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>8410180225087</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C25" s="4">
+        <v>7622300281182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C26" s="5">
+        <v>8711327373105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C27" s="5">
+        <v>7613035902985</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
+        <v>5059319024714</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
+        <v>8412500910604</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>8410297111150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C31" s="5">
+        <v>8412101026001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5052197040548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15">
+      <c r="A33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C33" s="5">
+        <v>8720182381804</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C34" s="5">
+        <v>8411327031127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C35" s="5">
+        <v>8410500010614</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C36" s="3">
+        <v>7613035265271</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C37" s="3">
+        <v>8412600028568</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>5029053038650</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C39" s="5">
+        <v>8410320398206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4001724038870</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>8410762220646</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C42" s="5">
+        <v>8410762220059</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C43" s="5">
+        <v>8410069018939</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C44" s="5">
+        <v>5010677012744</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C45" s="5">
+        <v>8410320127363</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C46" s="5">
+        <v>8410300101307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="5">
+        <v>8410300100492</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="4">
+        <v>4015400804376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C49" s="5">
+        <v>3600524146146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15">
+      <c r="A50" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C50" s="5">
+        <v>7622202039133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" ref="B51" ca="1" si="1">RANDBETWEEN(0, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="C51" s="5">
+        <v>8410500029159</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C42">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="1">
+      <formula>LEN(TRIM(C1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="2">
+      <formula>LEN(TRIM(D1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD5BA2C-E720-4F42-AD47-A639E7D0A292}">
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <f ca="1">RANDBETWEEN(0, 2)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>8718951179042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(0, 4)</f>
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3141360052005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8410010260042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>8428076006795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8411547001085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>8410422111048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8412700130468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8711000527474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8410300349129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>8412200020504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>8700216266628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>8410172652525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>8001090370587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>4005900704924</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>8410014477743</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8410022115828</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3014260294625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>8720181029363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>8410843060451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>7613287816825</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>8700216460750</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>8410063088181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C24" s="4">
+        <v>8410180225087</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>7622300281182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>8711327373105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C27" s="5">
+        <v>7613035902985</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C28" s="5">
+        <v>5059319024714</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C29" s="5">
+        <v>8412500910604</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C30" s="5">
+        <v>8410297111150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C31" s="5">
+        <v>8412101026001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5052197040548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15">
+      <c r="A33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C33" s="5">
+        <v>8720182381804</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C34" s="5">
+        <v>8411327031127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C35" s="5">
+        <v>8410500010614</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C36" s="3">
+        <v>7613035265271</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C37" s="3">
+        <v>8412600028568</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C38" s="4">
+        <v>5029053038650</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C39" s="5">
+        <v>8410320398206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4001724038870</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C41" s="5">
+        <v>8410762220646</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C42" s="5">
+        <v>8410762220059</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="5">
+        <v>8410069018939</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="5">
+        <v>5010677012744</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C45" s="5">
+        <v>8410320127363</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C46" s="5">
+        <v>8410300101307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="5">
+        <v>8410300100492</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C48" s="4">
+        <v>4015400804376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C49" s="5">
+        <v>3600524146146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15">
+      <c r="A50" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C50" s="5">
+        <v>7622202039133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C51" s="5">
+        <v>8410500029159</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C42">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
+      <formula>LEN(TRIM(C1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
+      <formula>LEN(TRIM(D1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9040BF9D-3625-4443-9953-6BD1E298C75B}">
   <dimension ref="A1:D51"/>
   <sheetViews>
@@ -1707,7 +5072,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>63</v>
@@ -1719,7 +5084,7 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">RANDBETWEEN(0, 4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="5">
         <v>8718951179042</v>
@@ -1743,7 +5108,7 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5">
         <v>8410010260042</v>
@@ -1755,7 +5120,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5">
         <v>8428076006795</v>
@@ -1779,7 +5144,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5">
         <v>8410422111048</v>
@@ -1791,7 +5156,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4">
         <v>8412700130468</v>
@@ -1803,7 +5168,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5">
         <v>8711000527474</v>
@@ -1815,7 +5180,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
         <v>8410300349129</v>
@@ -1839,7 +5204,7 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="5">
         <v>8700216266628</v>
@@ -1851,7 +5216,7 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="4">
         <v>8410172652525</v>
@@ -1863,7 +5228,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" s="5">
         <v>8001090370587</v>
@@ -1875,7 +5240,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" s="5">
         <v>4005900704924</v>
@@ -1887,7 +5252,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3">
         <v>8410014477743</v>
@@ -1899,7 +5264,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3">
         <v>8410022115828</v>
@@ -1911,7 +5276,7 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="5">
         <v>3014260294625</v>
@@ -1923,7 +5288,7 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" s="5">
         <v>8720181029363</v>
@@ -1947,7 +5312,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" s="5">
         <v>7613287816825</v>
@@ -1959,7 +5324,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="5">
         <v>8700216460750</v>
@@ -1971,7 +5336,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C23" s="5">
         <v>8410063088181</v>
@@ -1983,7 +5348,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="4">
         <v>8410180225087</v>
@@ -1995,7 +5360,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25" s="4">
         <v>7622300281182</v>
@@ -2007,7 +5372,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C26" s="5">
         <v>8711327373105</v>
@@ -2019,7 +5384,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" s="5">
         <v>7613035902985</v>
@@ -2031,7 +5396,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="5">
         <v>5059319024714</v>
@@ -2043,7 +5408,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" s="5">
         <v>8412500910604</v>
@@ -2055,7 +5420,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30" s="5">
         <v>8410297111150</v>
@@ -2067,7 +5432,7 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C31" s="5">
         <v>8412101026001</v>
@@ -2079,7 +5444,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C32" s="3">
         <v>5052197040548</v>
@@ -2103,7 +5468,7 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C34" s="5">
         <v>8411327031127</v>
@@ -2115,7 +5480,7 @@
       </c>
       <c r="B35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" s="5">
         <v>8410500010614</v>
@@ -2127,7 +5492,7 @@
       </c>
       <c r="B36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="3">
         <v>7613035265271</v>
@@ -2163,7 +5528,7 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" s="5">
         <v>8410320398206</v>
@@ -2187,7 +5552,7 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" s="5">
         <v>8410762220646</v>
@@ -2211,7 +5576,7 @@
       </c>
       <c r="B43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43" s="5">
         <v>8410069018939</v>
@@ -2223,7 +5588,7 @@
       </c>
       <c r="B44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C44" s="5">
         <v>5010677012744</v>
@@ -2235,7 +5600,7 @@
       </c>
       <c r="B45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" s="5">
         <v>8410320127363</v>
@@ -2247,7 +5612,7 @@
       </c>
       <c r="B46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46" s="5">
         <v>8410300101307</v>
@@ -2271,7 +5636,7 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="4">
         <v>4015400804376</v>
@@ -2283,7 +5648,7 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" s="5">
         <v>3600524146146</v>
@@ -2307,7 +5672,7 @@
       </c>
       <c r="B51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" s="5">
         <v>8410500029159</v>
@@ -2328,7 +5693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44201463-06EF-4EB4-B0AC-003DE0CD0ADA}">
   <dimension ref="A1:D51"/>
   <sheetViews>
@@ -2352,7 +5717,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>63</v>
@@ -2364,7 +5729,7 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">RANDBETWEEN(0, 4)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5">
         <v>8718951179042</v>
@@ -2376,7 +5741,7 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(0, 4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5">
         <v>3141360052005</v>
@@ -2388,7 +5753,7 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5">
         <v>8410010260042</v>
@@ -2400,7 +5765,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5">
         <v>8428076006795</v>
@@ -2412,7 +5777,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4">
         <v>8411547001085</v>
@@ -2424,7 +5789,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5">
         <v>8410422111048</v>
@@ -2436,7 +5801,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4">
         <v>8412700130468</v>
@@ -2448,7 +5813,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" s="5">
         <v>8711000527474</v>
@@ -2460,7 +5825,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3">
         <v>8410300349129</v>
@@ -2472,7 +5837,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="5">
         <v>8412200020504</v>
@@ -2484,7 +5849,7 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12" s="5">
         <v>8700216266628</v>
@@ -2496,7 +5861,7 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" s="4">
         <v>8410172652525</v>
@@ -2508,7 +5873,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="5">
         <v>8001090370587</v>
@@ -2520,7 +5885,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" s="5">
         <v>4005900704924</v>
@@ -2532,7 +5897,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3">
         <v>8410014477743</v>
@@ -2544,7 +5909,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3">
         <v>8410022115828</v>
@@ -2556,7 +5921,7 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="5">
         <v>3014260294625</v>
@@ -2580,7 +5945,7 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" s="5">
         <v>8410843060451</v>
@@ -2592,7 +5957,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="5">
         <v>7613287816825</v>
@@ -2604,7 +5969,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="5">
         <v>8700216460750</v>
@@ -2616,7 +5981,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="5">
         <v>8410063088181</v>
@@ -2640,7 +6005,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25" s="4">
         <v>7622300281182</v>
@@ -2676,7 +6041,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28" s="5">
         <v>5059319024714</v>
@@ -2688,7 +6053,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29" s="5">
         <v>8412500910604</v>
@@ -2700,7 +6065,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="5">
         <v>8410297111150</v>
@@ -2712,7 +6077,7 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31" s="5">
         <v>8412101026001</v>
@@ -2724,7 +6089,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="3">
         <v>5052197040548</v>
@@ -2736,7 +6101,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="5">
         <v>8720182381804</v>
@@ -2760,7 +6125,7 @@
       </c>
       <c r="B35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" s="5">
         <v>8410500010614</v>
@@ -2784,7 +6149,7 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="3">
         <v>8412600028568</v>
@@ -2796,7 +6161,7 @@
       </c>
       <c r="B38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="4">
         <v>5029053038650</v>
@@ -2808,7 +6173,7 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" s="5">
         <v>8410320398206</v>
@@ -2820,7 +6185,7 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40" s="3">
         <v>4001724038870</v>
@@ -2832,7 +6197,7 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="5">
         <v>8410762220646</v>
@@ -2844,7 +6209,7 @@
       </c>
       <c r="B42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="5">
         <v>8410762220059</v>
@@ -2856,7 +6221,7 @@
       </c>
       <c r="B43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="5">
         <v>8410069018939</v>
@@ -2868,7 +6233,7 @@
       </c>
       <c r="B44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C44" s="5">
         <v>5010677012744</v>
@@ -2880,7 +6245,7 @@
       </c>
       <c r="B45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45" s="5">
         <v>8410320127363</v>
@@ -2892,7 +6257,7 @@
       </c>
       <c r="B46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C46" s="5">
         <v>8410300101307</v>
@@ -2904,7 +6269,7 @@
       </c>
       <c r="B47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C47" s="5">
         <v>8410300100492</v>
@@ -2916,7 +6281,7 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C48" s="4">
         <v>4015400804376</v>
@@ -2928,7 +6293,7 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49" s="5">
         <v>3600524146146</v>
@@ -2940,7 +6305,7 @@
       </c>
       <c r="B50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C50" s="5">
         <v>7622202039133</v>
@@ -2952,7 +6317,7 @@
       </c>
       <c r="B51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C51" s="5">
         <v>8410500029159</v>
@@ -3613,947 +6978,1144 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FE233A-8C81-4176-8DA8-C1C1EDA82F4A}">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="28">
+        <v>81</v>
+      </c>
+      <c r="B2" s="28">
+        <v>8720182381804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="28">
+        <v>74</v>
+      </c>
+      <c r="B3" s="28">
+        <v>8720181029363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="28">
+        <v>82</v>
+      </c>
+      <c r="B4" s="28">
+        <v>8718951179042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="28">
+        <v>54</v>
+      </c>
+      <c r="B5" s="28">
+        <v>8711327373105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="28">
+        <v>77</v>
+      </c>
+      <c r="B6" s="28">
+        <v>8711000527474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="28">
+        <v>66</v>
+      </c>
+      <c r="B7" s="28">
+        <v>8700216460750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="28">
+        <v>74</v>
+      </c>
+      <c r="B8" s="28">
+        <v>8700216266628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="28">
+        <v>65</v>
+      </c>
+      <c r="B9" s="28">
+        <v>8428076006795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="28">
+        <v>70</v>
+      </c>
+      <c r="B10" s="28">
+        <v>8412700130468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="28">
+        <v>66</v>
+      </c>
+      <c r="B11" s="28">
+        <v>8412600028568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="28">
+        <v>82</v>
+      </c>
+      <c r="B12" s="28">
+        <v>8412500910604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="28">
+        <v>53</v>
+      </c>
+      <c r="B13" s="28">
+        <v>8412200020504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="28">
+        <v>83</v>
+      </c>
+      <c r="B14" s="28">
+        <v>8412101026001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="28">
+        <v>72</v>
+      </c>
+      <c r="B15" s="28">
+        <v>8411547001085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="28">
+        <v>69</v>
+      </c>
+      <c r="B16" s="28">
+        <v>8411327031127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="28">
+        <v>57</v>
+      </c>
+      <c r="B17" s="28">
+        <v>8410843060451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="28">
+        <v>56</v>
+      </c>
+      <c r="B18" s="28">
+        <v>8410762220646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="28">
+        <v>72</v>
+      </c>
+      <c r="B19" s="28">
+        <v>8410762220059</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="28">
+        <v>69</v>
+      </c>
+      <c r="B20" s="28">
+        <v>8410500029159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="28">
+        <v>66</v>
+      </c>
+      <c r="B21" s="28">
+        <v>8410500010614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="28">
+        <v>75</v>
+      </c>
+      <c r="B22" s="28">
+        <v>8410422111048</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="28">
+        <v>60</v>
+      </c>
+      <c r="B23" s="28">
+        <v>8410320398206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="28">
+        <v>63</v>
+      </c>
+      <c r="B24" s="28">
+        <v>8410320127363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="28">
+        <v>77</v>
+      </c>
+      <c r="B25" s="28">
+        <v>8410300349129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="28">
+        <v>73</v>
+      </c>
+      <c r="B26" s="28">
+        <v>8410300101307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="28">
+        <v>80</v>
+      </c>
+      <c r="B27" s="28">
+        <v>8410300100492</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="28">
+        <v>66</v>
+      </c>
+      <c r="B28" s="28">
+        <v>8410297111150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="28">
+        <v>98</v>
+      </c>
+      <c r="B29" s="28">
+        <v>8410180225087</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="28">
+        <v>76</v>
+      </c>
+      <c r="B30" s="28">
+        <v>8410172652525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="28">
+        <v>73</v>
+      </c>
+      <c r="B31" s="28">
+        <v>8410069018939</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="28">
+        <v>61</v>
+      </c>
+      <c r="B32" s="28">
+        <v>8410063088181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="28">
+        <v>73</v>
+      </c>
+      <c r="B33" s="28">
+        <v>8410022115828</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="28">
+        <v>70</v>
+      </c>
+      <c r="B34" s="28">
+        <v>8410014477743</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="28">
+        <v>66</v>
+      </c>
+      <c r="B35" s="28">
+        <v>8410010260042</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="28">
+        <v>65</v>
+      </c>
+      <c r="B36" s="28">
+        <v>8001090370587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="28">
+        <v>65</v>
+      </c>
+      <c r="B37" s="28">
+        <v>7622300281182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="28">
+        <v>78</v>
+      </c>
+      <c r="B38" s="28">
+        <v>7622202039133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="28">
+        <v>83</v>
+      </c>
+      <c r="B39" s="28">
+        <v>7613287816825</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="28">
+        <v>76</v>
+      </c>
+      <c r="B40" s="28">
+        <v>7613035902985</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="28">
+        <v>80</v>
+      </c>
+      <c r="B41" s="28">
+        <v>7613035265271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="28">
+        <v>77</v>
+      </c>
+      <c r="B42" s="28">
+        <v>5059319024714</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="28">
+        <v>72</v>
+      </c>
+      <c r="B43" s="28">
+        <v>5052197040548</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="28">
+        <v>70</v>
+      </c>
+      <c r="B44" s="28">
+        <v>5029053038650</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="28">
+        <v>59</v>
+      </c>
+      <c r="B45" s="28">
+        <v>5010677012744</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="28">
+        <v>66</v>
+      </c>
+      <c r="B46" s="28">
+        <v>4015400804376</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="28">
+        <v>56</v>
+      </c>
+      <c r="B47" s="28">
+        <v>4005900704924</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="28">
+        <v>77</v>
+      </c>
+      <c r="B48" s="28">
+        <v>4001724038870</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="28">
+        <v>61</v>
+      </c>
+      <c r="B49" s="28">
+        <v>3600524146146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="28">
+        <v>77</v>
+      </c>
+      <c r="B50" s="28">
+        <v>3141360052005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="28">
+        <v>72</v>
+      </c>
+      <c r="B51" s="28">
+        <v>3014260294625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00848AFD-CBD3-4F0E-BA5A-5600A8959900}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2132.39</v>
+      </c>
+      <c r="B2">
+        <v>1141.8899999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2097.81</v>
+      </c>
+      <c r="B3">
+        <v>1097.8899999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2064.8799999999983</v>
+      </c>
+      <c r="B4">
+        <v>1287.7699999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2161.41</v>
+      </c>
+      <c r="B5">
+        <v>989.01999999999975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>1993.2599999999982</v>
+      </c>
+      <c r="B6">
+        <v>1283.1399999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>2131.2099999999987</v>
+      </c>
+      <c r="B7">
+        <v>1058.5199999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>2215.3599999999988</v>
+      </c>
+      <c r="B8">
+        <v>1341.0699999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03438B7-A5E8-442E-9930-0244ACCE91C5}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="61.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
+        <v>8718951179042</v>
+      </c>
+      <c r="C2" s="26">
+        <f>2.316 * A2</f>
+        <v>23.159999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="24">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3141360052005</v>
+      </c>
+      <c r="C3" s="26">
+        <f t="shared" ref="C3:C51" si="0">2.316 * A3</f>
+        <v>11.579999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>8410010260042</v>
+      </c>
+      <c r="C4" s="26">
+        <f t="shared" si="0"/>
+        <v>18.527999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <v>8428076006795</v>
+      </c>
+      <c r="C5" s="26">
+        <f t="shared" si="0"/>
+        <v>13.895999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8411547001085</v>
+      </c>
+      <c r="C6" s="26">
+        <f t="shared" si="0"/>
+        <v>13.895999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
+        <v>8410422111048</v>
+      </c>
+      <c r="C7" s="26">
+        <f t="shared" si="0"/>
+        <v>23.159999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8412700130468</v>
+      </c>
+      <c r="C8" s="26">
+        <f t="shared" si="0"/>
+        <v>13.895999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8711000527474</v>
+      </c>
+      <c r="C9" s="26">
+        <f t="shared" si="0"/>
+        <v>34.739999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="8">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8410300349129</v>
+      </c>
+      <c r="C10" s="26">
+        <f t="shared" si="0"/>
+        <v>23.159999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5">
+        <v>8412200020504</v>
+      </c>
+      <c r="C11" s="26">
+        <f t="shared" si="0"/>
+        <v>37.055999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>8700216266628</v>
+      </c>
+      <c r="C12" s="26">
+        <f t="shared" si="0"/>
+        <v>18.527999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>8410172652525</v>
+      </c>
+      <c r="C13" s="26">
+        <f t="shared" si="0"/>
+        <v>27.791999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="6">
+        <v>20</v>
+      </c>
+      <c r="B14" s="5">
+        <v>8001090370587</v>
+      </c>
+      <c r="C14" s="26">
+        <f t="shared" si="0"/>
+        <v>46.319999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="B15" s="5">
+        <v>4005900704924</v>
+      </c>
+      <c r="C15" s="26">
+        <f t="shared" si="0"/>
+        <v>6.9479999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3">
+        <v>8410014477743</v>
+      </c>
+      <c r="C16" s="26">
+        <f t="shared" si="0"/>
+        <v>18.527999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>8410022115828</v>
+      </c>
+      <c r="C17" s="26">
+        <f t="shared" si="0"/>
+        <v>32.423999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3014260294625</v>
+      </c>
+      <c r="C18" s="26">
+        <f t="shared" si="0"/>
+        <v>69.47999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5">
+        <v>8720181029363</v>
+      </c>
+      <c r="C19" s="26">
+        <f t="shared" si="0"/>
+        <v>13.895999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="25">
+        <v>8</v>
+      </c>
+      <c r="B20" s="5">
+        <v>8410843060451</v>
+      </c>
+      <c r="C20" s="26">
+        <f t="shared" si="0"/>
+        <v>18.527999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5">
+        <v>7613287816825</v>
+      </c>
+      <c r="C21" s="26">
+        <f t="shared" si="0"/>
+        <v>23.159999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="8">
+        <v>12</v>
+      </c>
+      <c r="B22" s="5">
+        <v>8700216460750</v>
+      </c>
+      <c r="C22" s="26">
+        <f t="shared" si="0"/>
+        <v>27.791999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5">
+        <v>8410063088181</v>
+      </c>
+      <c r="C23" s="26">
+        <f t="shared" si="0"/>
+        <v>23.159999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4">
+        <v>8410180225087</v>
+      </c>
+      <c r="C24" s="26">
+        <f t="shared" si="0"/>
+        <v>18.527999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4">
+        <v>7622300281182</v>
+      </c>
+      <c r="C25" s="26">
+        <f t="shared" si="0"/>
+        <v>32.423999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>6</v>
+      </c>
+      <c r="B26" s="5">
+        <v>8711327373105</v>
+      </c>
+      <c r="C26" s="26">
+        <f t="shared" si="0"/>
+        <v>13.895999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>6</v>
+      </c>
+      <c r="B27" s="5">
+        <v>7613035902985</v>
+      </c>
+      <c r="C27" s="26">
+        <f t="shared" si="0"/>
+        <v>13.895999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>10</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5059319024714</v>
+      </c>
+      <c r="C28" s="26">
+        <f t="shared" si="0"/>
+        <v>23.159999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>8</v>
+      </c>
+      <c r="B29" s="5">
+        <v>8412500910604</v>
+      </c>
+      <c r="C29" s="26">
+        <f t="shared" si="0"/>
+        <v>18.527999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>6</v>
+      </c>
+      <c r="B30" s="5">
+        <v>8410297111150</v>
+      </c>
+      <c r="C30" s="26">
+        <f t="shared" si="0"/>
+        <v>13.895999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" s="6">
+        <v>6</v>
+      </c>
+      <c r="B31" s="5">
+        <v>8412101026001</v>
+      </c>
+      <c r="C31" s="26">
+        <f t="shared" si="0"/>
+        <v>13.895999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B32" s="3">
+        <v>5052197040548</v>
+      </c>
+      <c r="C32" s="26">
+        <f t="shared" si="0"/>
+        <v>9.2639999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15">
+      <c r="A33" s="6">
         <v>10</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5">
-        <v>8718951179042</v>
-      </c>
-      <c r="F2" s="26">
-        <v>2.3159999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="B33" s="5">
+        <v>8720182381804</v>
+      </c>
+      <c r="C33" s="26">
+        <f t="shared" si="0"/>
+        <v>23.159999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" s="6">
+        <v>24</v>
+      </c>
+      <c r="B34" s="5">
+        <v>8411327031127</v>
+      </c>
+      <c r="C34" s="26">
+        <f t="shared" si="0"/>
+        <v>55.583999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>8</v>
+      </c>
+      <c r="B35" s="5">
+        <v>8410500010614</v>
+      </c>
+      <c r="C35" s="26">
+        <f t="shared" si="0"/>
+        <v>18.527999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="8">
+        <v>10</v>
+      </c>
+      <c r="B36" s="3">
+        <v>7613035265271</v>
+      </c>
+      <c r="C36" s="26">
+        <f t="shared" si="0"/>
+        <v>23.159999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
         <v>6</v>
       </c>
-      <c r="B3" s="24">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3141360052005</v>
-      </c>
-      <c r="F3" s="26">
-        <v>1.51799999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="B37" s="3">
+        <v>8412600028568</v>
+      </c>
+      <c r="C37" s="26">
+        <f t="shared" si="0"/>
+        <v>13.895999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>12</v>
+      </c>
+      <c r="B38" s="4">
+        <v>5029053038650</v>
+      </c>
+      <c r="C38" s="26">
+        <f t="shared" si="0"/>
+        <v>27.791999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>12</v>
+      </c>
+      <c r="B39" s="5">
+        <v>8410320398206</v>
+      </c>
+      <c r="C39" s="26">
+        <f t="shared" si="0"/>
+        <v>27.791999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>6</v>
+      </c>
+      <c r="B40" s="3">
+        <v>4001724038870</v>
+      </c>
+      <c r="C40" s="26">
+        <f t="shared" si="0"/>
+        <v>13.895999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>6</v>
+      </c>
+      <c r="B41" s="5">
+        <v>8410762220646</v>
+      </c>
+      <c r="C41" s="26">
+        <f t="shared" si="0"/>
+        <v>13.895999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>6</v>
+      </c>
+      <c r="B42" s="5">
+        <v>8410762220059</v>
+      </c>
+      <c r="C42" s="26">
+        <f t="shared" si="0"/>
+        <v>13.895999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>10</v>
+      </c>
+      <c r="B43" s="5">
+        <v>8410069018939</v>
+      </c>
+      <c r="C43" s="26">
+        <f t="shared" si="0"/>
+        <v>23.159999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>4</v>
+      </c>
+      <c r="B44" s="5">
+        <v>5010677012744</v>
+      </c>
+      <c r="C44" s="26">
+        <f t="shared" si="0"/>
+        <v>9.2639999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>16</v>
+      </c>
+      <c r="B45" s="5">
+        <v>8410320127363</v>
+      </c>
+      <c r="C45" s="26">
+        <f t="shared" si="0"/>
+        <v>37.055999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>10</v>
+      </c>
+      <c r="B46" s="5">
+        <v>8410300101307</v>
+      </c>
+      <c r="C46" s="26">
+        <f t="shared" si="0"/>
+        <v>23.159999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>10</v>
+      </c>
+      <c r="B47" s="5">
+        <v>8410300100492</v>
+      </c>
+      <c r="C47" s="26">
+        <f t="shared" si="0"/>
+        <v>23.159999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5">
-        <v>8410010260042</v>
-      </c>
-      <c r="F4" s="26">
-        <v>2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="B48" s="4">
+        <v>4015400804376</v>
+      </c>
+      <c r="C48" s="26">
+        <f t="shared" si="0"/>
+        <v>18.527999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
         <v>6</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5">
-        <v>8428076006795</v>
-      </c>
-      <c r="F5" s="26">
-        <v>3.246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="B49" s="5">
+        <v>3600524146146</v>
+      </c>
+      <c r="C49" s="26">
+        <f t="shared" si="0"/>
+        <v>13.895999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15">
+      <c r="A50" s="6">
         <v>12</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B50" s="5">
+        <v>7622202039133</v>
+      </c>
+      <c r="C50" s="26">
+        <f t="shared" si="0"/>
+        <v>27.791999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
         <v>6</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4">
-        <v>8411547001085</v>
-      </c>
-      <c r="F6" s="26">
-        <v>1.194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5">
-        <v>8410422111048</v>
-      </c>
-      <c r="F7" s="26">
-        <v>2.1360000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4">
-        <v>8412700130468</v>
-      </c>
-      <c r="F8" s="26">
-        <v>5.2739999999999903</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5">
-        <v>8711000527474</v>
-      </c>
-      <c r="F9" s="26">
-        <v>2.028</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="8">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3">
-        <v>8410300349129</v>
-      </c>
-      <c r="F10" s="26">
-        <v>1.9379999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="5">
-        <v>8412200020504</v>
-      </c>
-      <c r="F11" s="26">
-        <v>1.95599999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5">
-        <v>8700216266628</v>
-      </c>
-      <c r="F12" s="26">
-        <v>1.95599999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="4">
-        <v>8410172652525</v>
-      </c>
-      <c r="F13" s="26">
-        <v>2.544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="6">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5">
-        <v>8001090370587</v>
-      </c>
-      <c r="F14" s="26">
-        <v>1.194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="5">
-        <v>4005900704924</v>
-      </c>
-      <c r="F15" s="26">
-        <v>6.27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="3">
-        <v>8410014477743</v>
-      </c>
-      <c r="F16" s="26">
-        <v>1.99199999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="3">
-        <v>8410022115828</v>
-      </c>
-      <c r="F17" s="26">
-        <v>3.1920000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2">
-        <v>30</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="5">
-        <v>3014260294625</v>
-      </c>
-      <c r="F18" s="26">
-        <v>2.4660000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="5">
-        <v>8720181029363</v>
-      </c>
-      <c r="F19" s="26">
-        <v>2.4660000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="25">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="5">
-        <v>8410843060451</v>
-      </c>
-      <c r="F20" s="26">
-        <v>4.26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="2">
-        <v>10</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="5">
-        <v>7613287816825</v>
-      </c>
-      <c r="F21" s="26">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="8">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="5">
-        <v>8700216460750</v>
-      </c>
-      <c r="F22" s="26">
-        <v>2.2679999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="2">
-        <v>10</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="5">
-        <v>8410063088181</v>
-      </c>
-      <c r="F23" s="26">
-        <v>3.2160000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="2">
-        <v>8</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="4">
-        <v>8410180225087</v>
-      </c>
-      <c r="F24" s="26">
-        <v>0.94199999999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="2">
-        <v>14</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="4">
-        <v>7622300281182</v>
-      </c>
-      <c r="F25" s="26">
-        <v>2.3940000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="2">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="5">
-        <v>8711327373105</v>
-      </c>
-      <c r="F26" s="26">
-        <v>3.1859999999999902</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="2">
-        <v>6</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="5">
-        <v>7613035902985</v>
-      </c>
-      <c r="F27" s="26">
-        <v>1.8659999999999899</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2">
-        <v>10</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="5">
-        <v>5059319024714</v>
-      </c>
-      <c r="F28" s="26">
-        <v>4.1520000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="2">
-        <v>8</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="5">
-        <v>8412500910604</v>
-      </c>
-      <c r="F29" s="26">
-        <v>3.73199999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="2">
-        <v>6</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="5">
-        <v>8410297111150</v>
-      </c>
-      <c r="F30" s="26">
-        <v>1.6919999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15">
-      <c r="A31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="6">
-        <v>6</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="5">
-        <v>8412101026001</v>
-      </c>
-      <c r="F31" s="26">
-        <v>3.1859999999999902</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="2">
-        <v>4</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>5052197040548</v>
-      </c>
-      <c r="F32" s="26">
-        <v>2.0579999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15">
-      <c r="A33" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="6">
-        <v>10</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="5">
-        <v>8720182381804</v>
-      </c>
-      <c r="F33" s="26">
-        <v>1.4219999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15">
-      <c r="A34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="6">
-        <v>24</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="5">
-        <v>8411327031127</v>
-      </c>
-      <c r="F34" s="26">
-        <v>2.4420000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="2">
-        <v>8</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="5">
-        <v>8410500010614</v>
-      </c>
-      <c r="F35" s="26">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="8">
-        <v>10</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="3">
-        <v>7613035265271</v>
-      </c>
-      <c r="F36" s="26">
-        <v>1.194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="2">
-        <v>6</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="3">
-        <v>8412600028568</v>
-      </c>
-      <c r="F37" s="26">
-        <v>8.2560000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="2">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="4">
-        <v>5029053038650</v>
-      </c>
-      <c r="F38" s="26">
-        <v>7.7939999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="2">
-        <v>12</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="5">
-        <v>8410320398206</v>
-      </c>
-      <c r="F39" s="26">
-        <v>1.1040000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="2">
-        <v>6</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="3">
-        <v>4001724038870</v>
-      </c>
-      <c r="F40" s="26">
-        <v>2.5739999999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="2">
-        <v>6</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="5">
-        <v>8410762220646</v>
-      </c>
-      <c r="F41" s="26">
-        <v>4.2960000000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="2">
-        <v>6</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="5">
-        <v>8410762220059</v>
-      </c>
-      <c r="F42" s="26">
-        <v>3.6119999999999899</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="2">
-        <v>10</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="5">
-        <v>8410069018939</v>
-      </c>
-      <c r="F43" s="26">
-        <v>3.0359999999999898</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="2">
-        <v>4</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="5">
-        <v>5010677012744</v>
-      </c>
-      <c r="F44" s="26">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="2">
-        <v>16</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="5">
-        <v>8410320127363</v>
-      </c>
-      <c r="F45" s="26">
-        <v>1.6679999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="2">
-        <v>10</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="5">
-        <v>8410300101307</v>
-      </c>
-      <c r="F46" s="26">
-        <v>0.52200000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="2">
-        <v>10</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="5">
-        <v>8410300100492</v>
-      </c>
-      <c r="F47" s="26">
-        <v>1.5779999999999901</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="2">
-        <v>8</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="4">
-        <v>4015400804376</v>
-      </c>
-      <c r="F48" s="26">
-        <v>1.5779999999999901</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="2">
-        <v>6</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" s="5">
-        <v>3600524146146</v>
-      </c>
-      <c r="F49" s="26">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15">
-      <c r="A50" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="6">
-        <v>12</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="5">
-        <v>7622202039133</v>
-      </c>
-      <c r="F50" s="26">
-        <v>1.0740000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="2">
-        <v>6</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="5">
+      <c r="B51" s="5">
         <v>8410500029159</v>
       </c>
-      <c r="F51" s="26">
-        <v>1.3499999999999901</v>
+      <c r="C51" s="26">
+        <f t="shared" si="0"/>
+        <v>13.895999999999999</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1 E1:E42">
+  <conditionalFormatting sqref="C1 B1:B42">
     <cfRule type="notContainsBlanks" dxfId="14" priority="1">
-      <formula>LEN(TRIM(E1))&gt;0</formula>
+      <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4561,7 +8123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FC0278-CD1F-4A81-943C-158511ADD3F5}">
   <dimension ref="A1:E51"/>
   <sheetViews>
@@ -5205,12 +8767,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5F1F0E-92AD-4E2C-8021-CE635DC09BE1}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -5228,7 +8790,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>63</v>
@@ -5240,7 +8802,7 @@
       </c>
       <c r="B2" s="13">
         <f ca="1">RANDBETWEEN(0, 3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="21">
         <v>8718951179042</v>
@@ -5288,7 +8850,7 @@
       </c>
       <c r="B6" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="22">
         <v>8411547001085</v>
@@ -5300,7 +8862,7 @@
       </c>
       <c r="B7" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="21">
         <v>8410422111048</v>
@@ -5312,7 +8874,7 @@
       </c>
       <c r="B8" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="22">
         <v>8412700130468</v>
@@ -5324,7 +8886,7 @@
       </c>
       <c r="B9" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="21">
         <v>8711000527474</v>
@@ -5336,7 +8898,7 @@
       </c>
       <c r="B10" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="23">
         <v>8410300349129</v>
@@ -5360,7 +8922,7 @@
       </c>
       <c r="B12" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="21">
         <v>8700216266628</v>
@@ -5372,7 +8934,7 @@
       </c>
       <c r="B13" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="22">
         <v>8410172652525</v>
@@ -5384,7 +8946,7 @@
       </c>
       <c r="B14" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="21">
         <v>8001090370587</v>
@@ -5396,7 +8958,7 @@
       </c>
       <c r="B15" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="21">
         <v>4005900704924</v>
@@ -5444,7 +9006,7 @@
       </c>
       <c r="B19" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" s="21">
         <v>8720181029363</v>
@@ -5456,7 +9018,7 @@
       </c>
       <c r="B20" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" s="21">
         <v>8410843060451</v>
@@ -5468,7 +9030,7 @@
       </c>
       <c r="B21" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" s="21">
         <v>7613287816825</v>
@@ -5480,7 +9042,7 @@
       </c>
       <c r="B22" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="21">
         <v>8700216460750</v>
@@ -5504,7 +9066,7 @@
       </c>
       <c r="B24" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="22">
         <v>8410180225087</v>
@@ -5516,7 +9078,7 @@
       </c>
       <c r="B25" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="22">
         <v>7622300281182</v>
@@ -5528,7 +9090,7 @@
       </c>
       <c r="B26" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C26" s="21">
         <v>8711327373105</v>
@@ -5540,7 +9102,7 @@
       </c>
       <c r="B27" s="13">
         <f ca="1">RANDBETWEEN(0, 3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" s="21">
         <v>7613035902985</v>
@@ -5552,7 +9114,7 @@
       </c>
       <c r="B28" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28" s="21">
         <v>5059319024714</v>
@@ -5576,7 +9138,7 @@
       </c>
       <c r="B30" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="21">
         <v>8410297111150</v>
@@ -5588,7 +9150,7 @@
       </c>
       <c r="B31" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="21">
         <v>8412101026001</v>
@@ -5600,7 +9162,7 @@
       </c>
       <c r="B32" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C32" s="23">
         <v>5052197040548</v>
@@ -5624,7 +9186,7 @@
       </c>
       <c r="B34" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C34" s="21">
         <v>8411327031127</v>
@@ -5660,7 +9222,7 @@
       </c>
       <c r="B37" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="23">
         <v>8412600028568</v>
@@ -5672,7 +9234,7 @@
       </c>
       <c r="B38" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" s="22">
         <v>5029053038650</v>
@@ -5684,7 +9246,7 @@
       </c>
       <c r="B39" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C39" s="21">
         <v>8410320398206</v>
@@ -5696,7 +9258,7 @@
       </c>
       <c r="B40" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="23">
         <v>4001724038870</v>
@@ -5708,7 +9270,7 @@
       </c>
       <c r="B41" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C41" s="21">
         <v>8410762220646</v>
@@ -5720,7 +9282,7 @@
       </c>
       <c r="B42" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C42" s="21">
         <v>8410762220059</v>
@@ -5732,7 +9294,7 @@
       </c>
       <c r="B43" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="21">
         <v>8410069018939</v>
@@ -5744,7 +9306,7 @@
       </c>
       <c r="B44" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" s="15">
         <v>5010677012744</v>
@@ -5756,7 +9318,7 @@
       </c>
       <c r="B45" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" s="15">
         <v>8410320127363</v>
@@ -5780,7 +9342,7 @@
       </c>
       <c r="B47" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" s="15">
         <v>8410300100492</v>
@@ -5792,7 +9354,7 @@
       </c>
       <c r="B48" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" s="17">
         <v>4015400804376</v>
@@ -5804,7 +9366,7 @@
       </c>
       <c r="B49" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="15">
         <v>3600524146146</v>
@@ -5816,7 +9378,7 @@
       </c>
       <c r="B50" s="13">
         <f ca="1">RANDBETWEEN(0, 3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C50" s="15">
         <v>7622202039133</v>
@@ -5828,7 +9390,7 @@
       </c>
       <c r="B51" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C51" s="15">
         <v>8410500029159</v>
@@ -5849,7 +9411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07B3640-784D-42D0-87AB-0DD72751A82C}">
   <dimension ref="A1:D51"/>
   <sheetViews>
@@ -5872,7 +9434,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>63</v>
@@ -5884,7 +9446,7 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">RANDBETWEEN(0, 3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="5">
         <v>8718951179042</v>
@@ -5896,7 +9458,7 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(0, 3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5">
         <v>3141360052005</v>
@@ -5908,7 +9470,7 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5">
         <v>8410010260042</v>
@@ -5920,7 +9482,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="5">
         <v>8428076006795</v>
@@ -5944,7 +9506,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" s="5">
         <v>8410422111048</v>
@@ -5956,7 +9518,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" s="4">
         <v>8412700130468</v>
@@ -5992,7 +9554,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" s="5">
         <v>8412200020504</v>
@@ -6016,7 +9578,7 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="4">
         <v>8410172652525</v>
@@ -6028,7 +9590,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="5">
         <v>8001090370587</v>
@@ -6040,7 +9602,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" s="5">
         <v>4005900704924</v>
@@ -6052,7 +9614,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3">
         <v>8410014477743</v>
@@ -6064,7 +9626,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
         <v>8410022115828</v>
@@ -6076,7 +9638,7 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="5">
         <v>3014260294625</v>
@@ -6088,7 +9650,7 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" s="5">
         <v>8720181029363</v>
@@ -6100,7 +9662,7 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" s="5">
         <v>8410843060451</v>
@@ -6112,7 +9674,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="5">
         <v>7613287816825</v>
@@ -6136,7 +9698,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" s="5">
         <v>8410063088181</v>
@@ -6160,7 +9722,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="4">
         <v>7622300281182</v>
@@ -6172,7 +9734,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="5">
         <v>8711327373105</v>
@@ -6184,7 +9746,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="5">
         <v>7613035902985</v>
@@ -6196,7 +9758,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" s="5">
         <v>5059319024714</v>
@@ -6244,7 +9806,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32" s="3">
         <v>5052197040548</v>
@@ -6256,7 +9818,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" s="5">
         <v>8720182381804</v>
@@ -6268,7 +9830,7 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C34" s="5">
         <v>8411327031127</v>
@@ -6280,7 +9842,7 @@
       </c>
       <c r="B35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C35" s="5">
         <v>8410500010614</v>
@@ -6304,7 +9866,7 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="3">
         <v>8412600028568</v>
@@ -6316,7 +9878,7 @@
       </c>
       <c r="B38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" s="4">
         <v>5029053038650</v>
@@ -6328,7 +9890,7 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" s="5">
         <v>8410320398206</v>
@@ -6352,7 +9914,7 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C41" s="5">
         <v>8410762220646</v>
@@ -6364,7 +9926,7 @@
       </c>
       <c r="B42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C42" s="5">
         <v>8410762220059</v>
@@ -6376,7 +9938,7 @@
       </c>
       <c r="B43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" s="5">
         <v>8410069018939</v>
@@ -6388,7 +9950,7 @@
       </c>
       <c r="B44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" s="5">
         <v>5010677012744</v>
@@ -6400,7 +9962,7 @@
       </c>
       <c r="B45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" s="5">
         <v>8410320127363</v>
@@ -6412,7 +9974,7 @@
       </c>
       <c r="B46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" s="5">
         <v>8410300101307</v>
@@ -6436,7 +9998,7 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="4">
         <v>4015400804376</v>
@@ -6448,7 +10010,7 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C49" s="5">
         <v>3600524146146</v>
@@ -6460,7 +10022,7 @@
       </c>
       <c r="B50" s="2">
         <f ca="1">RANDBETWEEN(0, 3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" s="5">
         <v>7622202039133</v>
@@ -6472,7 +10034,7 @@
       </c>
       <c r="B51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C51" s="5">
         <v>8410500029159</v>
@@ -6493,7 +10055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858752BE-B8E6-41E3-A886-CDA87CA234FE}">
   <dimension ref="A1:D51"/>
   <sheetViews>
@@ -6516,7 +10078,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>63</v>
@@ -6540,7 +10102,7 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(0, 3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5">
         <v>3141360052005</v>
@@ -6552,7 +10114,7 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="5">
         <v>8410010260042</v>
@@ -6564,7 +10126,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="5">
         <v>8428076006795</v>
@@ -6576,7 +10138,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4">
         <v>8411547001085</v>
@@ -6612,7 +10174,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5">
         <v>8711000527474</v>
@@ -6624,7 +10186,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
         <v>8410300349129</v>
@@ -6648,7 +10210,7 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" s="5">
         <v>8700216266628</v>
@@ -6672,7 +10234,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="5">
         <v>8001090370587</v>
@@ -6696,7 +10258,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3">
         <v>8410014477743</v>
@@ -6732,7 +10294,7 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" s="5">
         <v>8720181029363</v>
@@ -6756,7 +10318,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="5">
         <v>7613287816825</v>
@@ -6780,7 +10342,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="5">
         <v>8410063088181</v>
@@ -6792,7 +10354,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="4">
         <v>8410180225087</v>
@@ -6816,7 +10378,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="5">
         <v>8711327373105</v>
@@ -6828,7 +10390,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="5">
         <v>7613035902985</v>
@@ -6840,7 +10402,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="5">
         <v>5059319024714</v>
@@ -6852,7 +10414,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" s="5">
         <v>8412500910604</v>
@@ -6864,7 +10426,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30" s="5">
         <v>8410297111150</v>
@@ -6888,7 +10450,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" s="3">
         <v>5052197040548</v>
@@ -6936,7 +10498,7 @@
       </c>
       <c r="B36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C36" s="3">
         <v>7613035265271</v>
@@ -6948,7 +10510,7 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37" s="3">
         <v>8412600028568</v>
@@ -6960,7 +10522,7 @@
       </c>
       <c r="B38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="4">
         <v>5029053038650</v>
@@ -6972,7 +10534,7 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" s="5">
         <v>8410320398206</v>
@@ -6984,7 +10546,7 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C40" s="3">
         <v>4001724038870</v>
@@ -6996,7 +10558,7 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="5">
         <v>8410762220646</v>
@@ -7020,7 +10582,7 @@
       </c>
       <c r="B43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="5">
         <v>8410069018939</v>
@@ -7068,7 +10630,7 @@
       </c>
       <c r="B47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" s="5">
         <v>8410300100492</v>
@@ -7080,7 +10642,7 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C48" s="4">
         <v>4015400804376</v>
@@ -7092,7 +10654,7 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49" s="5">
         <v>3600524146146</v>
@@ -7104,7 +10666,7 @@
       </c>
       <c r="B50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="5">
         <v>7622202039133</v>
@@ -7116,7 +10678,7 @@
       </c>
       <c r="B51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="5">
         <v>8410500029159</v>
@@ -7135,1292 +10697,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981631B9-201A-477A-8CD9-95EDE04CE759}">
-  <dimension ref="A1:D51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <f ca="1">RANDBETWEEN(0, 3)</f>
-        <v>3</v>
-      </c>
-      <c r="C2" s="5">
-        <v>8718951179042</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <f t="shared" ref="B3:B50" ca="1" si="0">RANDBETWEEN(0, 3)</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3141360052005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>8410010260042</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>8428076006795</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>8411547001085</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>8410422111048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
-        <v>8412700130468</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>8711000527474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C10" s="3">
-        <v>8410300349129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>8412200020504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>8700216266628</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>8410172652525</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>8001090370587</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
-        <v>4005900704924</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>8410014477743</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>8410022115828</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C18" s="5">
-        <v>3014260294625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="5">
-        <v>8720181029363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C20" s="5">
-        <v>8410843060451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C21" s="5">
-        <v>7613287816825</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C22" s="5">
-        <v>8700216460750</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C23" s="5">
-        <v>8410063088181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C24" s="4">
-        <v>8410180225087</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C25" s="4">
-        <v>7622300281182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C26" s="5">
-        <v>8711327373105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="5">
-        <v>7613035902985</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C28" s="5">
-        <v>5059319024714</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C29" s="5">
-        <v>8412500910604</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C30" s="5">
-        <v>8410297111150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15">
-      <c r="A31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C31" s="5">
-        <v>8412101026001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C32" s="3">
-        <v>5052197040548</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15">
-      <c r="A33" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C33" s="5">
-        <v>8720182381804</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15">
-      <c r="A34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C34" s="5">
-        <v>8411327031127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C35" s="5">
-        <v>8410500010614</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C36" s="3">
-        <v>7613035265271</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C37" s="3">
-        <v>8412600028568</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C38" s="4">
-        <v>5029053038650</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C39" s="5">
-        <v>8410320398206</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C40" s="3">
-        <v>4001724038870</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C41" s="5">
-        <v>8410762220646</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C42" s="5">
-        <v>8410762220059</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C43" s="5">
-        <v>8410069018939</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C44" s="5">
-        <v>5010677012744</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C45" s="5">
-        <v>8410320127363</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C46" s="5">
-        <v>8410300101307</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C47" s="5">
-        <v>8410300100492</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C48" s="4">
-        <v>4015400804376</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C49" s="5">
-        <v>3600524146146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15">
-      <c r="A50" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C50" s="5">
-        <v>7622202039133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="2">
-        <f t="shared" ref="B51" ca="1" si="1">RANDBETWEEN(0, 4)</f>
-        <v>0</v>
-      </c>
-      <c r="C51" s="5">
-        <v>8410500029159</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C1:C42">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="1">
-      <formula>LEN(TRIM(C1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="2">
-      <formula>LEN(TRIM(D1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD5BA2C-E720-4F42-AD47-A639E7D0A292}">
-  <dimension ref="A1:D51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <f ca="1">RANDBETWEEN(0, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>8718951179042</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(0, 4)</f>
-        <v>3</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3141360052005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C4" s="5">
-        <v>8410010260042</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>8428076006795</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>8411547001085</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="5">
-        <v>8410422111048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C8" s="4">
-        <v>8412700130468</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C9" s="5">
-        <v>8711000527474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>8410300349129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C11" s="5">
-        <v>8412200020504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C12" s="5">
-        <v>8700216266628</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>8410172652525</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C14" s="5">
-        <v>8001090370587</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C15" s="5">
-        <v>4005900704924</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C16" s="3">
-        <v>8410014477743</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C17" s="3">
-        <v>8410022115828</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C18" s="5">
-        <v>3014260294625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C19" s="5">
-        <v>8720181029363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C20" s="5">
-        <v>8410843060451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C21" s="5">
-        <v>7613287816825</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C22" s="5">
-        <v>8700216460750</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="5">
-        <v>8410063088181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C24" s="4">
-        <v>8410180225087</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C25" s="4">
-        <v>7622300281182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C26" s="5">
-        <v>8711327373105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C27" s="5">
-        <v>7613035902985</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C28" s="5">
-        <v>5059319024714</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C29" s="5">
-        <v>8412500910604</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C30" s="5">
-        <v>8410297111150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15">
-      <c r="A31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C31" s="5">
-        <v>8412101026001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C32" s="3">
-        <v>5052197040548</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15">
-      <c r="A33" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C33" s="5">
-        <v>8720182381804</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15">
-      <c r="A34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C34" s="5">
-        <v>8411327031127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C35" s="5">
-        <v>8410500010614</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C36" s="3">
-        <v>7613035265271</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C37" s="3">
-        <v>8412600028568</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C38" s="4">
-        <v>5029053038650</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C39" s="5">
-        <v>8410320398206</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C40" s="3">
-        <v>4001724038870</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C41" s="5">
-        <v>8410762220646</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C42" s="5">
-        <v>8410762220059</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C43" s="5">
-        <v>8410069018939</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C44" s="5">
-        <v>5010677012744</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C45" s="5">
-        <v>8410320127363</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C46" s="5">
-        <v>8410300101307</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C47" s="5">
-        <v>8410300100492</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C48" s="4">
-        <v>4015400804376</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C49" s="5">
-        <v>3600524146146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15">
-      <c r="A50" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C50" s="5">
-        <v>7622202039133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C51" s="5">
-        <v>8410500029159</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C1:C42">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
-      <formula>LEN(TRIM(C1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
-      <formula>LEN(TRIM(D1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>